--- a/AFLFixtures2023.xlsx
+++ b/AFLFixtures2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Herman\Desktop\Python\Checkthepunt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D161BBF9-6B52-414E-87DD-31CC9861BD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE4060C-A1D6-4D62-AB43-CC1D89E9D641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2638,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6920,7 +6920,7 @@
         <v>62</v>
       </c>
       <c r="C128" s="3">
-        <v>45106.5</v>
+        <v>45106.805555555598</v>
       </c>
       <c r="D128" t="s">
         <v>51</v>
@@ -6952,7 +6952,7 @@
         <v>62</v>
       </c>
       <c r="C129" s="3">
-        <v>45106.5</v>
+        <v>45107.826388888898</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -6984,7 +6984,7 @@
         <v>62</v>
       </c>
       <c r="C130" s="3">
-        <v>45106.5</v>
+        <v>45108.572916666701</v>
       </c>
       <c r="D130" t="s">
         <v>31</v>
@@ -7016,7 +7016,7 @@
         <v>62</v>
       </c>
       <c r="C131" s="3">
-        <v>45106.5</v>
+        <v>45108.572916666701</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
@@ -7048,7 +7048,7 @@
         <v>62</v>
       </c>
       <c r="C132" s="3">
-        <v>45106.5</v>
+        <v>45108.690972222197</v>
       </c>
       <c r="D132" t="s">
         <v>63</v>
@@ -7080,7 +7080,7 @@
         <v>62</v>
       </c>
       <c r="C133" s="3">
-        <v>45106.5</v>
+        <v>45108.809027777803</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
@@ -7112,7 +7112,7 @@
         <v>62</v>
       </c>
       <c r="C134" s="3">
-        <v>45106.520833333299</v>
+        <v>45109.548611111102</v>
       </c>
       <c r="D134" t="s">
         <v>22</v>
@@ -7144,7 +7144,7 @@
         <v>62</v>
       </c>
       <c r="C135" s="3">
-        <v>45106.520833333299</v>
+        <v>45109.638888888898</v>
       </c>
       <c r="D135" t="s">
         <v>238</v>
@@ -7176,7 +7176,7 @@
         <v>62</v>
       </c>
       <c r="C136" s="3">
-        <v>45106.583333333299</v>
+        <v>45109.694444444402</v>
       </c>
       <c r="D136" t="s">
         <v>60</v>
@@ -7208,7 +7208,7 @@
         <v>65</v>
       </c>
       <c r="C137" s="3">
-        <v>45113.5</v>
+        <v>45113.805555555598</v>
       </c>
       <c r="D137" t="s">
         <v>51</v>
@@ -7240,7 +7240,7 @@
         <v>65</v>
       </c>
       <c r="C138" s="3">
-        <v>45113.5</v>
+        <v>45114.826388888898</v>
       </c>
       <c r="D138" t="s">
         <v>17</v>
@@ -7272,7 +7272,7 @@
         <v>65</v>
       </c>
       <c r="C139" s="3">
-        <v>45113.5</v>
+        <v>45115.572916666701</v>
       </c>
       <c r="D139" t="s">
         <v>134</v>
@@ -7304,7 +7304,7 @@
         <v>65</v>
       </c>
       <c r="C140" s="3">
-        <v>45113.5</v>
+        <v>45115.690972222197</v>
       </c>
       <c r="D140" t="s">
         <v>36</v>
@@ -7336,7 +7336,7 @@
         <v>65</v>
       </c>
       <c r="C141" s="3">
-        <v>45113.5</v>
+        <v>45115.809027777803</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -7368,7 +7368,7 @@
         <v>65</v>
       </c>
       <c r="C142" s="3">
-        <v>45113.5</v>
+        <v>45115.819444444402</v>
       </c>
       <c r="D142" t="s">
         <v>17</v>
@@ -7400,7 +7400,7 @@
         <v>65</v>
       </c>
       <c r="C143" s="3">
-        <v>45113.5</v>
+        <v>45116.548611111102</v>
       </c>
       <c r="D143" t="s">
         <v>17</v>
@@ -7432,7 +7432,7 @@
         <v>65</v>
       </c>
       <c r="C144" s="3">
-        <v>45113.520833333299</v>
+        <v>45116.638888888898</v>
       </c>
       <c r="D144" t="s">
         <v>22</v>
@@ -7464,7 +7464,7 @@
         <v>65</v>
       </c>
       <c r="C145" s="3">
-        <v>45113.583333333299</v>
+        <v>45116.694444444402</v>
       </c>
       <c r="D145" t="s">
         <v>60</v>
@@ -7496,7 +7496,7 @@
         <v>67</v>
       </c>
       <c r="C146" s="3">
-        <v>45120.5</v>
+        <v>45120.805555555598</v>
       </c>
       <c r="D146" t="s">
         <v>17</v>
@@ -7528,7 +7528,7 @@
         <v>67</v>
       </c>
       <c r="C147" s="3">
-        <v>45120.5</v>
+        <v>45121.826388888898</v>
       </c>
       <c r="D147" t="s">
         <v>8</v>
@@ -7560,7 +7560,7 @@
         <v>67</v>
       </c>
       <c r="C148" s="3">
-        <v>45120.5</v>
+        <v>45122.572916666701</v>
       </c>
       <c r="D148" t="s">
         <v>134</v>
@@ -7592,7 +7592,7 @@
         <v>67</v>
       </c>
       <c r="C149" s="3">
-        <v>45120.5</v>
+        <v>45122.590277777803</v>
       </c>
       <c r="D149" t="s">
         <v>31</v>
@@ -7624,7 +7624,7 @@
         <v>67</v>
       </c>
       <c r="C150" s="3">
-        <v>45120.5</v>
+        <v>45122.690972222197</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
@@ -7656,7 +7656,7 @@
         <v>67</v>
       </c>
       <c r="C151" s="3">
-        <v>45120.5</v>
+        <v>45122.809027777803</v>
       </c>
       <c r="D151" t="s">
         <v>17</v>
@@ -7688,7 +7688,7 @@
         <v>67</v>
       </c>
       <c r="C152" s="3">
-        <v>45120.5</v>
+        <v>45122.819444444402</v>
       </c>
       <c r="D152" t="s">
         <v>63</v>
@@ -7720,7 +7720,7 @@
         <v>67</v>
       </c>
       <c r="C153" s="3">
-        <v>45120.520833333299</v>
+        <v>45123.548611111102</v>
       </c>
       <c r="D153" t="s">
         <v>22</v>
@@ -7752,7 +7752,7 @@
         <v>67</v>
       </c>
       <c r="C154" s="3">
-        <v>45120.583333333299</v>
+        <v>45123.694444444402</v>
       </c>
       <c r="D154" t="s">
         <v>60</v>
@@ -7784,7 +7784,7 @@
         <v>69</v>
       </c>
       <c r="C155" s="3">
-        <v>45128.5</v>
+        <v>45128.826388888898</v>
       </c>
       <c r="D155" t="s">
         <v>51</v>
@@ -7816,7 +7816,7 @@
         <v>69</v>
       </c>
       <c r="C156" s="3">
-        <v>45128.5</v>
+        <v>45129.572916666701</v>
       </c>
       <c r="D156" t="s">
         <v>17</v>
@@ -7848,7 +7848,7 @@
         <v>69</v>
       </c>
       <c r="C157" s="3">
-        <v>45128.5</v>
+        <v>45129.590277777803</v>
       </c>
       <c r="D157" t="s">
         <v>17</v>
@@ -7880,7 +7880,7 @@
         <v>69</v>
       </c>
       <c r="C158" s="3">
-        <v>45128.5</v>
+        <v>45129.690972222197</v>
       </c>
       <c r="D158" t="s">
         <v>131</v>
@@ -7912,7 +7912,7 @@
         <v>69</v>
       </c>
       <c r="C159" s="3">
-        <v>45128.5</v>
+        <v>45129.819444444402</v>
       </c>
       <c r="D159" t="s">
         <v>8</v>
@@ -7944,7 +7944,7 @@
         <v>69</v>
       </c>
       <c r="C160" s="3">
-        <v>45128.5</v>
+        <v>45129.819444444402</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
@@ -7976,7 +7976,7 @@
         <v>69</v>
       </c>
       <c r="C161" s="3">
-        <v>45128.5</v>
+        <v>45130.548611111102</v>
       </c>
       <c r="D161" t="s">
         <v>17</v>
@@ -8008,7 +8008,7 @@
         <v>69</v>
       </c>
       <c r="C162" s="3">
-        <v>45128.520833333299</v>
+        <v>45130.638888888898</v>
       </c>
       <c r="D162" t="s">
         <v>22</v>
@@ -8040,7 +8040,7 @@
         <v>69</v>
       </c>
       <c r="C163" s="3">
-        <v>45128.583333333299</v>
+        <v>45130.694444444402</v>
       </c>
       <c r="D163" t="s">
         <v>60</v>
@@ -8072,7 +8072,7 @@
         <v>71</v>
       </c>
       <c r="C164" s="3">
-        <v>45135.5</v>
+        <v>45135.826388888898</v>
       </c>
       <c r="D164" t="s">
         <v>8</v>
@@ -8104,7 +8104,7 @@
         <v>71</v>
       </c>
       <c r="C165" s="3">
-        <v>45135.5</v>
+        <v>45136.572916666701</v>
       </c>
       <c r="D165" t="s">
         <v>17</v>
@@ -8136,7 +8136,7 @@
         <v>71</v>
       </c>
       <c r="C166" s="3">
-        <v>45135.5</v>
+        <v>45136.572916666701</v>
       </c>
       <c r="D166" t="s">
         <v>134</v>
@@ -8168,7 +8168,7 @@
         <v>71</v>
       </c>
       <c r="C167" s="3">
-        <v>45135.5</v>
+        <v>45136.690972222197</v>
       </c>
       <c r="D167" t="s">
         <v>31</v>
@@ -8200,7 +8200,7 @@
         <v>71</v>
       </c>
       <c r="C168" s="3">
-        <v>45135.5</v>
+        <v>45136.809027777803</v>
       </c>
       <c r="D168" t="s">
         <v>17</v>
@@ -8232,7 +8232,7 @@
         <v>71</v>
       </c>
       <c r="C169" s="3">
-        <v>45135.5</v>
+        <v>45136.819444444402</v>
       </c>
       <c r="D169" t="s">
         <v>8</v>
@@ -8264,7 +8264,7 @@
         <v>71</v>
       </c>
       <c r="C170" s="3">
-        <v>45135.5</v>
+        <v>45137.548611111102</v>
       </c>
       <c r="D170" t="s">
         <v>186</v>
@@ -8296,7 +8296,7 @@
         <v>71</v>
       </c>
       <c r="C171" s="3">
-        <v>45135.520833333299</v>
+        <v>45137.638888888898</v>
       </c>
       <c r="D171" t="s">
         <v>22</v>
@@ -8328,7 +8328,7 @@
         <v>71</v>
       </c>
       <c r="C172" s="3">
-        <v>45135.583333333299</v>
+        <v>45137.694444444402</v>
       </c>
       <c r="D172" t="s">
         <v>60</v>
@@ -8360,7 +8360,7 @@
         <v>73</v>
       </c>
       <c r="C173" s="3">
-        <v>45142.5</v>
+        <v>45142.826388888898</v>
       </c>
       <c r="D173" t="s">
         <v>17</v>
@@ -8392,7 +8392,7 @@
         <v>73</v>
       </c>
       <c r="C174" s="3">
-        <v>45142.5</v>
+        <v>45143.572916666701</v>
       </c>
       <c r="D174" t="s">
         <v>134</v>
@@ -8424,7 +8424,7 @@
         <v>73</v>
       </c>
       <c r="C175" s="3">
-        <v>45142.5</v>
+        <v>45143.590277777803</v>
       </c>
       <c r="D175" t="s">
         <v>36</v>
@@ -8456,7 +8456,7 @@
         <v>73</v>
       </c>
       <c r="C176" s="3">
-        <v>45142.5</v>
+        <v>45143.690972222197</v>
       </c>
       <c r="D176" t="s">
         <v>8</v>
@@ -8488,7 +8488,7 @@
         <v>73</v>
       </c>
       <c r="C177" s="3">
-        <v>45142.5</v>
+        <v>45143.809027777803</v>
       </c>
       <c r="D177" t="s">
         <v>177</v>
@@ -8520,7 +8520,7 @@
         <v>73</v>
       </c>
       <c r="C178" s="3">
-        <v>45142.5</v>
+        <v>45143.8125</v>
       </c>
       <c r="D178" t="s">
         <v>17</v>
@@ -8552,7 +8552,7 @@
         <v>73</v>
       </c>
       <c r="C179" s="3">
-        <v>45142.5</v>
+        <v>45144.548611111102</v>
       </c>
       <c r="D179" t="s">
         <v>17</v>
@@ -8584,7 +8584,7 @@
         <v>73</v>
       </c>
       <c r="C180" s="3">
-        <v>45142.520833333299</v>
+        <v>45144.638888888898</v>
       </c>
       <c r="D180" t="s">
         <v>22</v>
@@ -8616,7 +8616,7 @@
         <v>73</v>
       </c>
       <c r="C181" s="3">
-        <v>45142.583333333299</v>
+        <v>45144.694444444402</v>
       </c>
       <c r="D181" t="s">
         <v>60</v>
@@ -8648,7 +8648,7 @@
         <v>76</v>
       </c>
       <c r="C182" s="3">
-        <v>45149.5</v>
+        <v>45149.826388888898</v>
       </c>
       <c r="D182" t="s">
         <v>8</v>
@@ -8680,7 +8680,7 @@
         <v>76</v>
       </c>
       <c r="C183" s="3">
-        <v>45149.5</v>
+        <v>45150.572916666701</v>
       </c>
       <c r="D183" t="s">
         <v>51</v>
@@ -8712,7 +8712,7 @@
         <v>76</v>
       </c>
       <c r="C184" s="3">
-        <v>45149.5</v>
+        <v>45150.590277777803</v>
       </c>
       <c r="D184" t="s">
         <v>8</v>
@@ -8744,7 +8744,7 @@
         <v>76</v>
       </c>
       <c r="C185" s="3">
-        <v>45149.5</v>
+        <v>45150.690972222197</v>
       </c>
       <c r="D185" t="s">
         <v>74</v>
@@ -8776,7 +8776,7 @@
         <v>76</v>
       </c>
       <c r="C186" s="3">
-        <v>45149.5</v>
+        <v>45150.809027777803</v>
       </c>
       <c r="D186" t="s">
         <v>17</v>
@@ -8808,7 +8808,7 @@
         <v>76</v>
       </c>
       <c r="C187" s="3">
-        <v>45149.5</v>
+        <v>45150.840277777803</v>
       </c>
       <c r="D187" t="s">
         <v>17</v>
@@ -8840,7 +8840,7 @@
         <v>76</v>
       </c>
       <c r="C188" s="3">
-        <v>45149.5</v>
+        <v>45151.548611111102</v>
       </c>
       <c r="D188" t="s">
         <v>63</v>
@@ -8872,7 +8872,7 @@
         <v>76</v>
       </c>
       <c r="C189" s="3">
-        <v>45149.520833333299</v>
+        <v>45151.638888888898</v>
       </c>
       <c r="D189" t="s">
         <v>22</v>
@@ -8904,7 +8904,7 @@
         <v>76</v>
       </c>
       <c r="C190" s="3">
-        <v>45149.583333333299</v>
+        <v>45151.694444444402</v>
       </c>
       <c r="D190" t="s">
         <v>60</v>
@@ -8936,7 +8936,7 @@
         <v>78</v>
       </c>
       <c r="C191" s="3">
-        <v>45156.5</v>
+        <v>45156.826388888898</v>
       </c>
       <c r="D191" t="s">
         <v>17</v>
@@ -8968,7 +8968,7 @@
         <v>78</v>
       </c>
       <c r="C192" s="3">
-        <v>45156.5</v>
+        <v>45157.572916666701</v>
       </c>
       <c r="D192" t="s">
         <v>31</v>
@@ -9000,7 +9000,7 @@
         <v>78</v>
       </c>
       <c r="C193" s="3">
-        <v>45156.5</v>
+        <v>45157.590277777803</v>
       </c>
       <c r="D193" t="s">
         <v>36</v>
@@ -9032,7 +9032,7 @@
         <v>78</v>
       </c>
       <c r="C194" s="3">
-        <v>45156.5</v>
+        <v>45157.690972222197</v>
       </c>
       <c r="D194" t="s">
         <v>8</v>
@@ -9064,7 +9064,7 @@
         <v>78</v>
       </c>
       <c r="C195" s="3">
-        <v>45156.5</v>
+        <v>45157.809027777803</v>
       </c>
       <c r="D195" t="s">
         <v>8</v>
@@ -9096,7 +9096,7 @@
         <v>78</v>
       </c>
       <c r="C196" s="3">
-        <v>45156.5</v>
+        <v>45157.819444444402</v>
       </c>
       <c r="D196" t="s">
         <v>17</v>
@@ -9128,7 +9128,7 @@
         <v>78</v>
       </c>
       <c r="C197" s="3">
-        <v>45156.5</v>
+        <v>45158.548611111102</v>
       </c>
       <c r="D197" t="s">
         <v>17</v>
@@ -9160,7 +9160,7 @@
         <v>78</v>
       </c>
       <c r="C198" s="3">
-        <v>45156.520833333299</v>
+        <v>45158.638888888898</v>
       </c>
       <c r="D198" t="s">
         <v>22</v>
@@ -9192,7 +9192,7 @@
         <v>78</v>
       </c>
       <c r="C199" s="3">
-        <v>45156.583333333299</v>
+        <v>45158.694444444402</v>
       </c>
       <c r="D199" t="s">
         <v>60</v>

--- a/AFLFixtures2023.xlsx
+++ b/AFLFixtures2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE4060C-A1D6-4D62-AB43-CC1D89E9D641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2116A59D-C29B-49B6-ADB5-B9204DC669A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2303,7 +2303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2311,17 +2311,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2638,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6916,7 +6931,7 @@
       <c r="A128" t="s">
         <v>230</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C128" s="3">
@@ -6948,11 +6963,11 @@
       <c r="A129" t="s">
         <v>231</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C129" s="3">
-        <v>45107.826388888898</v>
+        <v>45108.809027777781</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -6980,11 +6995,11 @@
       <c r="A130" t="s">
         <v>232</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C130" s="3">
-        <v>45108.572916666701</v>
+        <v>45108.690972222219</v>
       </c>
       <c r="D130" t="s">
         <v>31</v>
@@ -7012,11 +7027,11 @@
       <c r="A131" t="s">
         <v>233</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C131" s="3">
-        <v>45108.572916666701</v>
+        <v>45109.548611111109</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
@@ -7044,11 +7059,11 @@
       <c r="A132" t="s">
         <v>234</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C132" s="3">
-        <v>45108.690972222197</v>
+        <v>45107.826388888891</v>
       </c>
       <c r="D132" t="s">
         <v>63</v>
@@ -7076,11 +7091,11 @@
       <c r="A133" t="s">
         <v>235</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C133" s="3">
-        <v>45108.809027777803</v>
+        <v>45108.572916666664</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
@@ -7108,11 +7123,11 @@
       <c r="A134" t="s">
         <v>236</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C134" s="3">
-        <v>45109.548611111102</v>
+        <v>45108.572916666664</v>
       </c>
       <c r="D134" t="s">
         <v>22</v>
@@ -7140,7 +7155,7 @@
       <c r="A135" t="s">
         <v>237</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C135" s="3">
@@ -7172,7 +7187,7 @@
       <c r="A136" t="s">
         <v>239</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C136" s="3">
@@ -7204,11 +7219,11 @@
       <c r="A137" t="s">
         <v>240</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C137" s="3">
-        <v>45113.805555555598</v>
+        <v>45115.572916666664</v>
       </c>
       <c r="D137" t="s">
         <v>51</v>
@@ -7236,11 +7251,11 @@
       <c r="A138" t="s">
         <v>241</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C138" s="3">
-        <v>45114.826388888898</v>
+        <v>45116.638888888891</v>
       </c>
       <c r="D138" t="s">
         <v>17</v>
@@ -7268,11 +7283,11 @@
       <c r="A139" t="s">
         <v>242</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C139" s="3">
-        <v>45115.572916666701</v>
+        <v>45116.548611111109</v>
       </c>
       <c r="D139" t="s">
         <v>134</v>
@@ -7300,7 +7315,7 @@
       <c r="A140" t="s">
         <v>243</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C140" s="3">
@@ -7332,11 +7347,11 @@
       <c r="A141" t="s">
         <v>244</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C141" s="3">
-        <v>45115.809027777803</v>
+        <v>45113.805555555555</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -7364,11 +7379,11 @@
       <c r="A142" t="s">
         <v>245</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C142" s="3">
-        <v>45115.819444444402</v>
+        <v>45115.809027777781</v>
       </c>
       <c r="D142" t="s">
         <v>17</v>
@@ -7396,11 +7411,11 @@
       <c r="A143" t="s">
         <v>246</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C143" s="3">
-        <v>45116.548611111102</v>
+        <v>45114.826388888891</v>
       </c>
       <c r="D143" t="s">
         <v>17</v>
@@ -7428,11 +7443,11 @@
       <c r="A144" t="s">
         <v>247</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C144" s="3">
-        <v>45116.638888888898</v>
+        <v>45115.819444444445</v>
       </c>
       <c r="D144" t="s">
         <v>22</v>
@@ -7460,7 +7475,7 @@
       <c r="A145" t="s">
         <v>248</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C145" s="3">

--- a/AFLFixtures2023.xlsx
+++ b/AFLFixtures2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Herman\Desktop\Python\Checkthepunt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2116A59D-C29B-49B6-ADB5-B9204DC669A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3733556A-4F5A-47DA-BC8F-8D461F63000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fixture" sheetId="1" r:id="rId1"/>
@@ -2277,7 +2277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2331,10 +2331,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2653,11 +2653,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
@@ -2671,7 +2671,7 @@
     <col min="11" max="11" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>120</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>122</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>124</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>126</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>133</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>138</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>140</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>142</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>144</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>146</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>148</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>150</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>156</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>160</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>162</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>164</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>165</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>166</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>167</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>168</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>169</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>170</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>171</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>172</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>174</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>175</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>176</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>178</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>179</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>180</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>181</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>182</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>183</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>184</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>185</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>187</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>189</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>190</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>191</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>192</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>193</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>194</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>195</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>196</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>197</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>199</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>200</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>201</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>202</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>203</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>204</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>209</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>210</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>211</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>212</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>213</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>214</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>215</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>216</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>217</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>218</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>219</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>220</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>221</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>222</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>223</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>224</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>225</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>226</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>227</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>228</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>229</v>
       </c>
@@ -6927,11 +6927,11 @@
         <v>664</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>230</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C128" s="3">
@@ -6959,11 +6959,11 @@
         <v>665</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>231</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C129" s="3">
@@ -6991,11 +6991,11 @@
         <v>666</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>232</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C130" s="3">
@@ -7023,11 +7023,11 @@
         <v>667</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>233</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C131" s="3">
@@ -7055,11 +7055,11 @@
         <v>668</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>234</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C132" s="3">
@@ -7087,11 +7087,11 @@
         <v>669</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>235</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C133" s="3">
@@ -7119,11 +7119,11 @@
         <v>670</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>236</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C134" s="3">
@@ -7151,11 +7151,11 @@
         <v>671</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>237</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C135" s="3">
@@ -7183,11 +7183,11 @@
         <v>672</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>239</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C136" s="3">
@@ -7215,11 +7215,11 @@
         <v>673</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>240</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C137" s="3">
@@ -7247,11 +7247,11 @@
         <v>674</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>241</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C138" s="3">
@@ -7279,11 +7279,11 @@
         <v>675</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>242</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C139" s="3">
@@ -7311,11 +7311,11 @@
         <v>676</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>243</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C140" s="3">
@@ -7343,11 +7343,11 @@
         <v>582</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>244</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C141" s="3">
@@ -7375,11 +7375,11 @@
         <v>577</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>245</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C142" s="3">
@@ -7407,11 +7407,11 @@
         <v>677</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>246</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C143" s="3">
@@ -7439,11 +7439,11 @@
         <v>678</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>247</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C144" s="3">
@@ -7471,11 +7471,11 @@
         <v>679</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>248</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C145" s="3">
@@ -7503,15 +7503,15 @@
         <v>680</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>249</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C146" s="3">
-        <v>45120.805555555598</v>
+        <v>45122.690972222219</v>
       </c>
       <c r="D146" t="s">
         <v>17</v>
@@ -7535,15 +7535,15 @@
         <v>681</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>250</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C147" s="3">
-        <v>45121.826388888898</v>
+        <v>45122.572916666664</v>
       </c>
       <c r="D147" t="s">
         <v>8</v>
@@ -7567,15 +7567,15 @@
         <v>682</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>251</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C148" s="3">
-        <v>45122.572916666701</v>
+        <v>45122.809027777781</v>
       </c>
       <c r="D148" t="s">
         <v>134</v>
@@ -7599,11 +7599,11 @@
         <v>683</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>252</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C149" s="3">
@@ -7631,15 +7631,15 @@
         <v>684</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>253</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C150" s="3">
-        <v>45122.690972222197</v>
+        <v>45121.826388888891</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
@@ -7663,15 +7663,15 @@
         <v>685</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>254</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C151" s="3">
-        <v>45122.809027777803</v>
+        <v>45123.548611111109</v>
       </c>
       <c r="D151" t="s">
         <v>17</v>
@@ -7695,15 +7695,15 @@
         <v>686</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>255</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C152" s="3">
-        <v>45122.819444444402</v>
+        <v>45120.805555555555</v>
       </c>
       <c r="D152" t="s">
         <v>63</v>
@@ -7727,15 +7727,15 @@
         <v>687</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>256</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C153" s="3">
-        <v>45123.548611111102</v>
+        <v>45122.819444444445</v>
       </c>
       <c r="D153" t="s">
         <v>22</v>
@@ -7759,11 +7759,11 @@
         <v>688</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>257</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C154" s="3">
@@ -7791,15 +7791,15 @@
         <v>689</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>258</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C155" s="3">
-        <v>45128.826388888898</v>
+        <v>45129.690972222219</v>
       </c>
       <c r="D155" t="s">
         <v>51</v>
@@ -7823,15 +7823,15 @@
         <v>690</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>259</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C156" s="3">
-        <v>45129.572916666701</v>
+        <v>45129.590277777781</v>
       </c>
       <c r="D156" t="s">
         <v>17</v>
@@ -7855,15 +7855,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>260</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C157" s="3">
-        <v>45129.590277777803</v>
+        <v>45128.826388888891</v>
       </c>
       <c r="D157" t="s">
         <v>17</v>
@@ -7887,15 +7887,15 @@
         <v>692</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>261</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C158" s="3">
-        <v>45129.690972222197</v>
+        <v>45130.548611111109</v>
       </c>
       <c r="D158" t="s">
         <v>131</v>
@@ -7919,15 +7919,15 @@
         <v>693</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>262</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C159" s="3">
-        <v>45129.819444444402</v>
+        <v>45130.638888888891</v>
       </c>
       <c r="D159" t="s">
         <v>8</v>
@@ -7951,15 +7951,15 @@
         <v>694</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>263</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C160" s="3">
-        <v>45129.819444444402</v>
+        <v>45129.572916666664</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
@@ -7983,11 +7983,11 @@
         <v>695</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>264</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C161" s="3">
@@ -8015,15 +8015,15 @@
         <v>696</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>265</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C162" s="3">
-        <v>45130.638888888898</v>
+        <v>45129.819444444445</v>
       </c>
       <c r="D162" t="s">
         <v>22</v>
@@ -8047,11 +8047,11 @@
         <v>697</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>266</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C163" s="3">
@@ -8079,11 +8079,11 @@
         <v>698</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>267</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C164" s="3">
@@ -8111,15 +8111,15 @@
         <v>699</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>268</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C165" s="3">
-        <v>45136.572916666701</v>
+        <v>45136.809027777781</v>
       </c>
       <c r="D165" t="s">
         <v>17</v>
@@ -8143,11 +8143,11 @@
         <v>700</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>269</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C166" s="3">
@@ -8175,11 +8175,11 @@
         <v>701</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>270</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C167" s="3">
@@ -8207,15 +8207,15 @@
         <v>702</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>271</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C168" s="3">
-        <v>45136.809027777803</v>
+        <v>45137.548611111109</v>
       </c>
       <c r="D168" t="s">
         <v>17</v>
@@ -8239,15 +8239,15 @@
         <v>703</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>272</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C169" s="3">
-        <v>45136.819444444402</v>
+        <v>45137.638888888891</v>
       </c>
       <c r="D169" t="s">
         <v>8</v>
@@ -8271,15 +8271,15 @@
         <v>704</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>273</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C170" s="3">
-        <v>45137.548611111102</v>
+        <v>45136.572916666664</v>
       </c>
       <c r="D170" t="s">
         <v>186</v>
@@ -8303,15 +8303,15 @@
         <v>705</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>274</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C171" s="3">
-        <v>45137.638888888898</v>
+        <v>45136.819444444445</v>
       </c>
       <c r="D171" t="s">
         <v>22</v>
@@ -8335,11 +8335,11 @@
         <v>706</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>275</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C172" s="3">
@@ -8367,15 +8367,15 @@
         <v>707</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>276</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C173" s="3">
-        <v>45142.826388888898</v>
+        <v>45143.572916666664</v>
       </c>
       <c r="D173" t="s">
         <v>17</v>
@@ -8399,15 +8399,15 @@
         <v>708</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>277</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C174" s="3">
-        <v>45143.572916666701</v>
+        <v>45143.809027777781</v>
       </c>
       <c r="D174" t="s">
         <v>134</v>
@@ -8431,15 +8431,15 @@
         <v>709</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>278</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C175" s="3">
-        <v>45143.590277777803</v>
+        <v>45143.8125</v>
       </c>
       <c r="D175" t="s">
         <v>36</v>
@@ -8463,11 +8463,11 @@
         <v>710</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>279</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C176" s="3">
@@ -8495,15 +8495,15 @@
         <v>711</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>280</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C177" s="3">
-        <v>45143.809027777803</v>
+        <v>45144.548611111109</v>
       </c>
       <c r="D177" t="s">
         <v>177</v>
@@ -8527,15 +8527,15 @@
         <v>712</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>281</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C178" s="3">
-        <v>45143.8125</v>
+        <v>45144.638888888891</v>
       </c>
       <c r="D178" t="s">
         <v>17</v>
@@ -8559,15 +8559,15 @@
         <v>713</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>282</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C179" s="3">
-        <v>45144.548611111102</v>
+        <v>45142.826388888898</v>
       </c>
       <c r="D179" t="s">
         <v>17</v>
@@ -8591,15 +8591,15 @@
         <v>714</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>283</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C180" s="3">
-        <v>45144.638888888898</v>
+        <v>45143.590277777781</v>
       </c>
       <c r="D180" t="s">
         <v>22</v>
@@ -8623,11 +8623,11 @@
         <v>715</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>284</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C181" s="3">
@@ -8655,15 +8655,15 @@
         <v>716</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>285</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C182" s="3">
-        <v>45149.826388888898</v>
+        <v>45150.809027777781</v>
       </c>
       <c r="D182" t="s">
         <v>8</v>
@@ -8687,15 +8687,15 @@
         <v>717</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>286</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C183" s="3">
-        <v>45150.572916666701</v>
+        <v>45150.690972222219</v>
       </c>
       <c r="D183" t="s">
         <v>51</v>
@@ -8719,15 +8719,15 @@
         <v>718</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>287</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C184" s="3">
-        <v>45150.590277777803</v>
+        <v>45149.826388888898</v>
       </c>
       <c r="D184" t="s">
         <v>8</v>
@@ -8751,15 +8751,15 @@
         <v>719</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>288</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C185" s="3">
-        <v>45150.690972222197</v>
+        <v>45151.548611111109</v>
       </c>
       <c r="D185" t="s">
         <v>74</v>
@@ -8783,15 +8783,15 @@
         <v>720</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>289</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C186" s="3">
-        <v>45150.809027777803</v>
+        <v>45150.572916666664</v>
       </c>
       <c r="D186" t="s">
         <v>17</v>
@@ -8815,15 +8815,15 @@
         <v>721</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>290</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C187" s="3">
-        <v>45150.840277777803</v>
+        <v>45151.638888888891</v>
       </c>
       <c r="D187" t="s">
         <v>17</v>
@@ -8847,15 +8847,15 @@
         <v>722</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>291</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C188" s="3">
-        <v>45151.548611111102</v>
+        <v>45150.590277777781</v>
       </c>
       <c r="D188" t="s">
         <v>63</v>
@@ -8879,15 +8879,15 @@
         <v>723</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>292</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C189" s="3">
-        <v>45151.638888888898</v>
+        <v>45151.694444444445</v>
       </c>
       <c r="D189" t="s">
         <v>22</v>
@@ -8911,11 +8911,11 @@
         <v>724</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>293</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C190" s="3">
@@ -8943,11 +8943,11 @@
         <v>725</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>294</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C191" s="3">
@@ -8975,15 +8975,15 @@
         <v>726</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>295</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C192" s="3">
-        <v>45157.572916666701</v>
+        <v>45157.590277777781</v>
       </c>
       <c r="D192" t="s">
         <v>31</v>
@@ -9007,15 +9007,15 @@
         <v>727</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>296</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C193" s="3">
-        <v>45157.590277777803</v>
+        <v>45157.690972222219</v>
       </c>
       <c r="D193" t="s">
         <v>36</v>
@@ -9039,15 +9039,15 @@
         <v>728</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>297</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C194" s="3">
-        <v>45157.690972222197</v>
+        <v>45158.638888888898</v>
       </c>
       <c r="D194" t="s">
         <v>8</v>
@@ -9071,15 +9071,15 @@
         <v>729</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>298</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C195" s="3">
-        <v>45157.809027777803</v>
+        <v>45157.572916666664</v>
       </c>
       <c r="D195" t="s">
         <v>8</v>
@@ -9103,15 +9103,15 @@
         <v>730</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>299</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C196" s="3">
-        <v>45157.819444444402</v>
+        <v>45157.809027777781</v>
       </c>
       <c r="D196" t="s">
         <v>17</v>
@@ -9135,11 +9135,11 @@
         <v>731</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>300</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C197" s="3">
@@ -9167,15 +9167,15 @@
         <v>732</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>301</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C198" s="3">
-        <v>45158.638888888898</v>
+        <v>45157.819444444445</v>
       </c>
       <c r="D198" t="s">
         <v>22</v>
@@ -9199,11 +9199,11 @@
         <v>733</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>302</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C199" s="3">
@@ -9231,7 +9231,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>303</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>304</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>305</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>306</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>307</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>308</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>309</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>310</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>311</v>
       </c>

--- a/AFLFixtures2023.xlsx
+++ b/AFLFixtures2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Herman\Desktop\Python\Checkthepunt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3733556A-4F5A-47DA-BC8F-8D461F63000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9DC6C1-7F15-470B-8FF5-FD30382AB7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Fixture" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fixture!$A$1:$K$208</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Fixture!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2334,7 +2335,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2653,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5203,7 +5204,7 @@
       <c r="A74" t="s">
         <v>173</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C74" s="3">
@@ -6961,194 +6962,194 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C129" s="3">
-        <v>45108.809027777781</v>
+        <v>45107.826388888891</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E129" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I129" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J129" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K129" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C130" s="3">
-        <v>45108.690972222219</v>
+        <v>45108.572916666664</v>
       </c>
       <c r="D130" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H130" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="I130" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="J130" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K130" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C131" s="3">
-        <v>45109.548611111109</v>
+        <v>45108.572916666664</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E131" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H131" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="I131" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J131" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K131" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C132" s="3">
-        <v>45107.826388888891</v>
+        <v>45108.690972222219</v>
       </c>
       <c r="D132" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="I132" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="J132" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K132" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C133" s="3">
-        <v>45108.572916666664</v>
+        <v>45108.809027777781</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H133" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I133" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="J133" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K133" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C134" s="3">
-        <v>45108.572916666664</v>
+        <v>45109.548611111109</v>
       </c>
       <c r="D134" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H134" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I134" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="J134" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K134" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -7217,98 +7218,98 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C137" s="3">
-        <v>45115.572916666664</v>
+        <v>45113.805555555555</v>
       </c>
       <c r="D137" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E137" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H137" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I137" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J137" t="s">
-        <v>468</v>
+        <v>371</v>
       </c>
       <c r="K137" t="s">
-        <v>674</v>
+        <v>577</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C138" s="3">
-        <v>45116.638888888891</v>
+        <v>45114.826388888891</v>
       </c>
       <c r="D138" t="s">
         <v>17</v>
       </c>
       <c r="E138" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I138" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J138" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K138" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C139" s="3">
-        <v>45116.548611111109</v>
+        <v>45115.572916666664</v>
       </c>
       <c r="D139" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H139" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="I139" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="J139" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K139" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -7345,130 +7346,130 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C141" s="3">
-        <v>45113.805555555555</v>
+        <v>45115.809027777781</v>
       </c>
       <c r="D141" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E141" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H141" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="I141" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="J141" t="s">
-        <v>371</v>
+        <v>471</v>
       </c>
       <c r="K141" t="s">
-        <v>577</v>
+        <v>677</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C142" s="3">
-        <v>45115.809027777781</v>
+        <v>45115.819444444445</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E142" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F142" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H142" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I142" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J142" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K142" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C143" s="3">
-        <v>45114.826388888891</v>
+        <v>45116.548611111109</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="E143" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H143" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="I143" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J143" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K143" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C144" s="3">
-        <v>45115.819444444445</v>
+        <v>45116.638888888891</v>
       </c>
       <c r="D144" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E144" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H144" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="I144" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="J144" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K144" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -7505,105 +7506,105 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>249</v>
-      </c>
-      <c r="B146" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C146" s="3">
-        <v>45122.690972222219</v>
+        <v>45120.805555555555</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H146" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I146" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="J146" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K146" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>250</v>
-      </c>
-      <c r="B147" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C147" s="3">
-        <v>45122.572916666664</v>
+        <v>45121.826388888891</v>
       </c>
       <c r="D147" t="s">
         <v>8</v>
       </c>
       <c r="E147" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H147" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I147" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J147" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K147" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>251</v>
-      </c>
-      <c r="B148" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C148" s="3">
-        <v>45122.809027777781</v>
+        <v>45122.572916666664</v>
       </c>
       <c r="D148" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="E148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H148" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="I148" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J148" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K148" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>252</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C149" s="3">
@@ -7633,137 +7634,137 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>253</v>
-      </c>
-      <c r="B150" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C150" s="3">
-        <v>45121.826388888891</v>
+        <v>45122.690972222219</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E150" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H150" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="I150" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J150" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K150" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>254</v>
-      </c>
-      <c r="B151" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C151" s="3">
-        <v>45123.548611111109</v>
+        <v>45122.809027777781</v>
       </c>
       <c r="D151" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="E151" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H151" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I151" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="J151" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K151" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>255</v>
-      </c>
-      <c r="B152" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C152" s="3">
-        <v>45120.805555555555</v>
+        <v>45122.819444444445</v>
       </c>
       <c r="D152" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H152" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I152" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="J152" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K152" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>256</v>
-      </c>
-      <c r="B153" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C153" s="3">
-        <v>45122.819444444445</v>
+        <v>45123.548611111109</v>
       </c>
       <c r="D153" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H153" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="I153" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J153" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K153" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>257</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C154" s="3">
@@ -7793,265 +7794,265 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>258</v>
-      </c>
-      <c r="B155" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C155" s="3">
-        <v>45129.690972222219</v>
+        <v>45128.826388888891</v>
       </c>
       <c r="D155" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E155" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H155" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I155" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="J155" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K155" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>259</v>
-      </c>
-      <c r="B156" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C156" s="3">
-        <v>45129.590277777781</v>
+        <v>45129.572916666664</v>
       </c>
       <c r="D156" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H156" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I156" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="J156" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K156" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>260</v>
-      </c>
-      <c r="B157" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C157" s="3">
-        <v>45128.826388888891</v>
+        <v>45129.590277777781</v>
       </c>
       <c r="D157" t="s">
         <v>17</v>
       </c>
       <c r="E157" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H157" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I157" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J157" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K157" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>261</v>
-      </c>
-      <c r="B158" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C158" s="3">
-        <v>45130.548611111109</v>
+        <v>45129.690972222219</v>
       </c>
       <c r="D158" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H158" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I158" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J158" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K158" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>262</v>
-      </c>
-      <c r="B159" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C159" s="3">
-        <v>45130.638888888891</v>
+        <v>45129.819444444445</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E159" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I159" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J159" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K159" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>263</v>
-      </c>
-      <c r="B160" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C160" s="3">
-        <v>45129.572916666664</v>
+        <v>45130.548611111102</v>
       </c>
       <c r="D160" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E160" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H160" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="I160" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J160" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K160" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>264</v>
-      </c>
-      <c r="B161" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C161" s="3">
-        <v>45130.548611111102</v>
+        <v>45130.548611111109</v>
       </c>
       <c r="D161" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="E161" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H161" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I161" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J161" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K161" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>265</v>
-      </c>
-      <c r="B162" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C162" s="3">
-        <v>45129.819444444445</v>
+        <v>45130.638888888891</v>
       </c>
       <c r="D162" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E162" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H162" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I162" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J162" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K162" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>266</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C163" s="3">
@@ -8083,7 +8084,7 @@
       <c r="A164" t="s">
         <v>267</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C164" s="3">
@@ -8113,41 +8114,41 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>268</v>
-      </c>
-      <c r="B165" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C165" s="3">
-        <v>45136.809027777781</v>
+        <v>45136.572916666664</v>
       </c>
       <c r="D165" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="E165" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H165" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I165" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="J165" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="K165" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>269</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C166" s="3">
@@ -8179,7 +8180,7 @@
       <c r="A167" t="s">
         <v>270</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C167" s="3">
@@ -8209,137 +8210,137 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>271</v>
-      </c>
-      <c r="B168" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C168" s="3">
-        <v>45137.548611111109</v>
+        <v>45136.809027777781</v>
       </c>
       <c r="D168" t="s">
         <v>17</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H168" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="I168" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="J168" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K168" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>272</v>
-      </c>
-      <c r="B169" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C169" s="3">
-        <v>45137.638888888891</v>
+        <v>45136.819444444445</v>
       </c>
       <c r="D169" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E169" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H169" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="I169" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J169" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K169" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>273</v>
-      </c>
-      <c r="B170" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C170" s="3">
-        <v>45136.572916666664</v>
+        <v>45137.548611111109</v>
       </c>
       <c r="D170" t="s">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="E170" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H170" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I170" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J170" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K170" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>274</v>
-      </c>
-      <c r="B171" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C171" s="3">
-        <v>45136.819444444445</v>
+        <v>45137.638888888891</v>
       </c>
       <c r="D171" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E171" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F171" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H171" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="I171" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J171" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K171" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>275</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C172" s="3">
@@ -8369,105 +8370,105 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>276</v>
-      </c>
-      <c r="B173" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C173" s="3">
-        <v>45143.572916666664</v>
+        <v>45142.826388888898</v>
       </c>
       <c r="D173" t="s">
         <v>17</v>
       </c>
       <c r="E173" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F173" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H173" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I173" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="J173" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="K173" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>277</v>
-      </c>
-      <c r="B174" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C174" s="3">
-        <v>45143.809027777781</v>
+        <v>45143.572916666664</v>
       </c>
       <c r="D174" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E174" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F174" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H174" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="I174" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="J174" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K174" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>278</v>
-      </c>
-      <c r="B175" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C175" s="3">
-        <v>45143.8125</v>
+        <v>45143.590277777781</v>
       </c>
       <c r="D175" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H175" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="I175" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="J175" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="K175" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>279</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C176" s="3">
@@ -8497,137 +8498,137 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>280</v>
-      </c>
-      <c r="B177" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C177" s="3">
-        <v>45144.548611111109</v>
+        <v>45143.809027777781</v>
       </c>
       <c r="D177" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="E177" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F177" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H177" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I177" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J177" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K177" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>281</v>
-      </c>
-      <c r="B178" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C178" s="3">
-        <v>45144.638888888891</v>
+        <v>45143.8125</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E178" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F178" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H178" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I178" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J178" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K178" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>282</v>
-      </c>
-      <c r="B179" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C179" s="3">
-        <v>45142.826388888898</v>
+        <v>45144.548611111109</v>
       </c>
       <c r="D179" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="E179" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F179" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H179" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I179" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J179" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K179" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>283</v>
-      </c>
-      <c r="B180" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C180" s="3">
-        <v>45143.590277777781</v>
+        <v>45144.638888888891</v>
       </c>
       <c r="D180" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E180" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H180" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I180" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J180" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K180" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>284</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C181" s="3">
@@ -8657,297 +8658,297 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>285</v>
-      </c>
-      <c r="B182" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C182" s="3">
-        <v>45150.809027777781</v>
+        <v>45149.826388888898</v>
       </c>
       <c r="D182" t="s">
         <v>8</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H182" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I182" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J182" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K182" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>286</v>
-      </c>
-      <c r="B183" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C183" s="3">
-        <v>45150.690972222219</v>
+        <v>45150.572916666664</v>
       </c>
       <c r="D183" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E183" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H183" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I183" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="J183" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K183" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>287</v>
-      </c>
-      <c r="B184" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C184" s="3">
-        <v>45149.826388888898</v>
+        <v>45150.590277777781</v>
       </c>
       <c r="D184" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E184" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H184" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I184" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J184" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K184" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>288</v>
-      </c>
-      <c r="B185" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C185" s="3">
-        <v>45151.548611111109</v>
+        <v>45150.690972222219</v>
       </c>
       <c r="D185" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E185" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F185" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H185" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I185" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J185" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K185" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>289</v>
-      </c>
-      <c r="B186" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C186" s="3">
-        <v>45150.572916666664</v>
+        <v>45150.809027777781</v>
       </c>
       <c r="D186" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E186" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H186" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="I186" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="J186" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K186" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>290</v>
-      </c>
-      <c r="B187" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C187" s="3">
-        <v>45151.638888888891</v>
+        <v>45151.548611111109</v>
       </c>
       <c r="D187" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E187" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F187" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H187" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I187" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="J187" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K187" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>291</v>
-      </c>
-      <c r="B188" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C188" s="3">
-        <v>45150.590277777781</v>
+        <v>45151.638888888891</v>
       </c>
       <c r="D188" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E188" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="H188" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I188" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J188" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K188" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>292</v>
-      </c>
-      <c r="B189" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C189" s="3">
-        <v>45151.694444444445</v>
+        <v>45151.694444444402</v>
       </c>
       <c r="D189" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E189" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H189" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="I189" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="J189" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K189" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>293</v>
-      </c>
-      <c r="B190" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C190" s="3">
-        <v>45151.694444444402</v>
+        <v>45151.694444444445</v>
       </c>
       <c r="D190" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E190" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F190" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H190" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="I190" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="J190" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K190" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>294</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C191" s="3">
@@ -8977,169 +8978,169 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>295</v>
-      </c>
-      <c r="B192" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C192" s="3">
-        <v>45157.590277777781</v>
+        <v>45157.572916666664</v>
       </c>
       <c r="D192" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E192" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F192" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H192" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I192" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J192" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="K192" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>296</v>
-      </c>
-      <c r="B193" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C193" s="3">
-        <v>45157.690972222219</v>
+        <v>45157.590277777781</v>
       </c>
       <c r="D193" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E193" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F193" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="H193" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I193" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="J193" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K193" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>297</v>
-      </c>
-      <c r="B194" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C194" s="3">
-        <v>45158.638888888898</v>
+        <v>45157.690972222219</v>
       </c>
       <c r="D194" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E194" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H194" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I194" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="J194" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K194" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>298</v>
-      </c>
-      <c r="B195" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C195" s="3">
-        <v>45157.572916666664</v>
+        <v>45157.809027777781</v>
       </c>
       <c r="D195" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E195" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H195" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="I195" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J195" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K195" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>299</v>
-      </c>
-      <c r="B196" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C196" s="3">
-        <v>45157.809027777781</v>
+        <v>45157.819444444445</v>
       </c>
       <c r="D196" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E196" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F196" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H196" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I196" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="J196" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K196" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>300</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C197" s="3">
@@ -9169,41 +9170,41 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>301</v>
-      </c>
-      <c r="B198" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C198" s="3">
-        <v>45157.819444444445</v>
+        <v>45158.638888888898</v>
       </c>
       <c r="D198" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E198" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H198" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I198" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J198" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K198" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>302</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C199" s="3">
@@ -9520,6 +9521,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K208" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>

--- a/AFLFixtures2023.xlsx
+++ b/AFLFixtures2023.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Herman\Desktop\Python\Checkthepunt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Herman\Desktop\Python\Checkthepunt\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9DC6C1-7F15-470B-8FF5-FD30382AB7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609B47F4-A89D-4AF0-85A7-7C1B81F71595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fixture" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fixture!$A$1:$K$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fixture!$A$1:$K$201</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Fixture!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="749">
   <si>
     <t>Match Number</t>
   </si>
@@ -87,9 +87,6 @@
     <t>103 - 125</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Marvel Stadium</t>
   </si>
   <si>
@@ -99,12 +96,6 @@
     <t>West Coast Eagles</t>
   </si>
   <si>
-    <t>87 - 82</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Adelaide Oval</t>
   </si>
   <si>
@@ -114,24 +105,12 @@
     <t>Brisbane Lions</t>
   </si>
   <si>
-    <t>126 - 72</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Melbourne</t>
   </si>
   <si>
     <t>Western Bulldogs</t>
   </si>
   <si>
-    <t>115 - 65</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Heritage Bank Stadium</t>
   </si>
   <si>
@@ -141,12 +120,6 @@
     <t>Sydney Swans</t>
   </si>
   <si>
-    <t>61 - 110</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>GIANTS Stadium</t>
   </si>
   <si>
@@ -156,33 +129,18 @@
     <t>Adelaide Crows</t>
   </si>
   <si>
-    <t>106 - 90</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Hawthorn</t>
   </si>
   <si>
     <t>Essendon</t>
   </si>
   <si>
-    <t>65 - 124</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>St Kilda</t>
   </si>
   <si>
     <t>Fremantle</t>
   </si>
   <si>
-    <t>67 - 52</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -1044,27 +1002,6 @@
     <t>geelong-cats-collingwood-magpies</t>
   </si>
   <si>
-    <t>north-melbourne-kangaroos-west-coast-eagles</t>
-  </si>
-  <si>
-    <t>port-adelaide-power-brisbane-lions</t>
-  </si>
-  <si>
-    <t>melbourne-demons-western-bulldogs</t>
-  </si>
-  <si>
-    <t>gold-coast-suns-sydney-swans</t>
-  </si>
-  <si>
-    <t>greater-western-sydney-giants-adelaide-crows</t>
-  </si>
-  <si>
-    <t>hawthorn-hawks-essendon-bombers</t>
-  </si>
-  <si>
-    <t>st-kilda-saints-fremantle-dockers</t>
-  </si>
-  <si>
     <t>carlton-blues-geelong-cats</t>
   </si>
   <si>
@@ -1662,27 +1599,6 @@
     <t>Geelong Cats vs Collingwood</t>
   </si>
   <si>
-    <t>North Melbourne vs West Coast Eagles</t>
-  </si>
-  <si>
-    <t>Port Adelaide vs Brisbane Lions</t>
-  </si>
-  <si>
-    <t>Melbourne vs Western Bulldogs</t>
-  </si>
-  <si>
-    <t>Gold Coast Suns vs Sydney Swans</t>
-  </si>
-  <si>
-    <t>GWS Giants vs Adelaide Crows</t>
-  </si>
-  <si>
-    <t>Hawthorn vs Essendon</t>
-  </si>
-  <si>
-    <t>St Kilda vs Fremantle</t>
-  </si>
-  <si>
     <t>Carlton vs Geelong Cats</t>
   </si>
   <si>
@@ -2269,6 +2185,105 @@
   </si>
   <si>
     <t>West Coast Eagles vs Adelaide Crows</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>60 - 53</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>74 - 68</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>77 - 101</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>123 - 75</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>71 - 73</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>70 - 93</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>58 - 57</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>79 - 63</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Grand Final</t>
+  </si>
+  <si>
+    <t>90 - 86</t>
+  </si>
+  <si>
+    <t>collingwood-magpies-melbourne-demons</t>
+  </si>
+  <si>
+    <t>carlton-blues-sydney-swans</t>
+  </si>
+  <si>
+    <t>st-kilda-saints-greater-western-sydney-giants</t>
+  </si>
+  <si>
+    <t>brisbane-lions-port-adelaide-power</t>
+  </si>
+  <si>
+    <t>brisbane-lions-carlton-blues</t>
+  </si>
+  <si>
+    <t>Collingwood vs Melbourne</t>
+  </si>
+  <si>
+    <t>Carlton vs Sydney Swans</t>
+  </si>
+  <si>
+    <t>St Kilda vs GWS Giants</t>
+  </si>
+  <si>
+    <t>Brisbane Lions vs Port Adelaide</t>
+  </si>
+  <si>
+    <t>Brisbane Lions vs Carlton</t>
+  </si>
+  <si>
+    <t>Elimination Final</t>
+  </si>
+  <si>
+    <t>Qualifying Final</t>
+  </si>
+  <si>
+    <t>Semi Final</t>
+  </si>
+  <si>
+    <t>Preliminary Finals</t>
   </si>
 </sst>
 </file>
@@ -2332,10 +2347,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2356,9 +2371,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2396,7 +2411,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2502,7 +2517,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2644,7 +2659,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2652,16 +2667,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K208"/>
+  <dimension ref="A1:K210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="6" width="17.28515625" customWidth="1"/>
@@ -2695,27 +2710,27 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
+      <c r="B2" s="4">
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>45001.805555555598</v>
+        <v>45336</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -2730,27 +2745,27 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="I2" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="J2" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="K2" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
+      <c r="B3" s="4">
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>45002.819444444402</v>
+        <v>45338</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -2765,698 +2780,698 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="I3" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="J3" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="K3" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>45003.572916666701</v>
+        <v>45008.805555555598</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I4" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="J4" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="K4" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45009.829861111102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45003.690972222197</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="I5" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="J5" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="K5" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>45003.809027777803</v>
+        <v>45010.572916666701</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I6" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="J6" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="K6" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>45003.833333333299</v>
+        <v>45010.690972222197</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I7" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="J7" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="K7" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>45004.548611111102</v>
+        <v>45010.809027777803</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I8" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="J8" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="K8" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>45004.638888888898</v>
+        <v>45010.8125</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="I9" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="J9" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="K9" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>45004.694444444402</v>
+        <v>45011.548611111102</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I10" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="J10" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="K10" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>45008.805555555598</v>
+        <v>45011.638888888898</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J11" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="K11" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>45009.829861111102</v>
+        <v>45011.763888888898</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I12" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="J12" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="K12" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
       </c>
       <c r="C13" s="3">
-        <v>45010.572916666701</v>
+        <v>45015.805555555598</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="I13" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="J13" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="K13" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>45010.690972222197</v>
+        <v>45016.826388888898</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="I14" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="J14" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="K14" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>45010.809027777803</v>
+        <v>45017.572916666701</v>
       </c>
       <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="I15" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="J15" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="K15" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>62</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>45010.8125</v>
+        <v>45017.690972222197</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="I16" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="J16" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="K16" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>45011.548611111102</v>
+        <v>45017.809027777803</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="I17" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J17" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="K17" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>66</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>45011.638888888898</v>
+        <v>45017.8125</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="I18" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J18" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="K18" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>68</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>45011.763888888898</v>
+        <v>45018.590277777803</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="I19" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="J19" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="K19" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>70</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>45015.805555555598</v>
+        <v>45018.638888888898</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="I20" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="J20" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="K20" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>72</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>45016.826388888898</v>
+        <v>45018.722222222197</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="I21" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J21" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="K21" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>74</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>45017.572916666701</v>
+        <v>45022.815972222197</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
         <v>75</v>
       </c>
       <c r="H22" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="I22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J22" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="K22" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45023.680555555598</v>
+      </c>
+      <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="3">
-        <v>45017.690972222197</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -3465,628 +3480,628 @@
         <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="I23" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="J23" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="K23" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
+      <c r="B24" s="4">
+        <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>45017.809027777803</v>
+        <v>45024.572916666701</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="I24" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="J24" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="K24" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
+      <c r="B25" s="4">
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>45017.8125</v>
+        <v>45024.690972222197</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
         <v>23</v>
-      </c>
-      <c r="F25" t="s">
-        <v>38</v>
       </c>
       <c r="G25" t="s">
         <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="I25" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="J25" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="K25" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45024.8125</v>
+      </c>
+      <c r="D26" t="s">
         <v>16</v>
-      </c>
-      <c r="C26" s="3">
-        <v>45018.590277777803</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
       </c>
       <c r="E26" t="s">
         <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
         <v>83</v>
       </c>
       <c r="H26" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="I26" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J26" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="K26" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>16</v>
+      <c r="B27" s="4">
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>45018.638888888898</v>
+        <v>45024.8125</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
         <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I27" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="J27" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="K27" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
+        <v>45025.590277777803</v>
+      </c>
+      <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="3">
-        <v>45018.722222222197</v>
-      </c>
-      <c r="D28" t="s">
-        <v>60</v>
-      </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
         <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="I28" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="J28" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="K28" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>21</v>
+      <c r="B29" s="4">
+        <v>4</v>
       </c>
       <c r="C29" s="3">
-        <v>45022.815972222197</v>
+        <v>45025.722222222197</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
         <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I29" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="J29" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="K29" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>21</v>
+      <c r="B30" s="4">
+        <v>4</v>
       </c>
       <c r="C30" s="3">
-        <v>45023.680555555598</v>
+        <v>45026.638888888898</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>91</v>
       </c>
       <c r="H30" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="I30" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="J30" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="K30" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>21</v>
+      <c r="B31" s="4">
+        <v>5</v>
       </c>
       <c r="C31" s="3">
-        <v>45024.572916666701</v>
+        <v>45029.819444444402</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
         <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="I31" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="J31" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="K31" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>21</v>
+      <c r="B32" s="4">
+        <v>5</v>
       </c>
       <c r="C32" s="3">
-        <v>45024.690972222197</v>
+        <v>45030.715277777803</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H32" t="s">
         <v>314</v>
       </c>
       <c r="I32" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="J32" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="K32" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>21</v>
+        <v>97</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5</v>
       </c>
       <c r="C33" s="3">
-        <v>45024.8125</v>
+        <v>45030.840277777803</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H33" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="I33" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J33" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="K33" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45031.548611111102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="3">
-        <v>45024.8125</v>
-      </c>
-      <c r="D34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" t="s">
-        <v>33</v>
-      </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H34" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="I34" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="J34" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="K34" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5</v>
       </c>
       <c r="C35" s="3">
-        <v>45025.590277777803</v>
+        <v>45031.673611111102</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H35" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="I35" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="J35" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="K35" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>21</v>
+        <v>104</v>
+      </c>
+      <c r="B36" s="4">
+        <v>5</v>
       </c>
       <c r="C36" s="3">
-        <v>45025.722222222197</v>
+        <v>45031.826388888898</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H36" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="I36" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="J36" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="K36" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
+      </c>
+      <c r="B37" s="4">
+        <v>5</v>
       </c>
       <c r="C37" s="3">
-        <v>45026.638888888898</v>
+        <v>45032.548611111102</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H37" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="I37" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J37" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="K37" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>108</v>
+      </c>
+      <c r="B38" s="4">
+        <v>5</v>
       </c>
       <c r="C38" s="3">
-        <v>45029.819444444402</v>
+        <v>45032.638888888898</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H38" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="I38" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="J38" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="K38" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>26</v>
+        <v>110</v>
+      </c>
+      <c r="B39" s="4">
+        <v>5</v>
       </c>
       <c r="C39" s="3">
-        <v>45030.715277777803</v>
+        <v>45032.701388888898</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H39" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="I39" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="J39" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K39" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
+      </c>
+      <c r="B40" s="4">
+        <v>6</v>
       </c>
       <c r="C40" s="3">
-        <v>45030.840277777803</v>
+        <v>45037.840277777803</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H40" t="s">
         <v>314</v>
       </c>
       <c r="I40" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="J40" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="K40" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>26</v>
+        <v>114</v>
+      </c>
+      <c r="B41" s="4">
+        <v>6</v>
       </c>
       <c r="C41" s="3">
-        <v>45031.548611111102</v>
+        <v>45038.572916666701</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
@@ -4095,313 +4110,313 @@
         <v>115</v>
       </c>
       <c r="H41" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="I41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J41" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="K41" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>26</v>
+      <c r="B42" s="4">
+        <v>6</v>
       </c>
       <c r="C42" s="3">
-        <v>45031.673611111102</v>
+        <v>45038.690972222197</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H42" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="I42" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J42" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="K42" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="4">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3">
+        <v>45038.809027777803</v>
+      </c>
+      <c r="D43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="3">
-        <v>45031.826388888898</v>
-      </c>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" t="s">
-        <v>28</v>
-      </c>
       <c r="G43" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H43" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I43" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="J43" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="K43" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
+      </c>
+      <c r="B44" s="4">
+        <v>6</v>
       </c>
       <c r="C44" s="3">
-        <v>45032.548611111102</v>
+        <v>45039.548611111102</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H44" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="I44" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="J44" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="K44" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>26</v>
+        <v>124</v>
+      </c>
+      <c r="B45" s="4">
+        <v>6</v>
       </c>
       <c r="C45" s="3">
-        <v>45032.638888888898</v>
+        <v>45039.638888888898</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H45" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="I45" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="J45" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="K45" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>26</v>
+        <v>126</v>
+      </c>
+      <c r="B46" s="4">
+        <v>6</v>
       </c>
       <c r="C46" s="3">
-        <v>45032.701388888898</v>
+        <v>45039.694444444402</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H46" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="I46" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="J46" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="K46" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>30</v>
+        <v>128</v>
+      </c>
+      <c r="B47" s="4">
+        <v>6</v>
       </c>
       <c r="C47" s="3">
-        <v>45037.840277777803</v>
+        <v>45040.809027777803</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H47" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="I47" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="J47" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="K47" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>30</v>
+        <v>130</v>
+      </c>
+      <c r="B48" s="4">
+        <v>6</v>
       </c>
       <c r="C48" s="3">
-        <v>45038.572916666701</v>
+        <v>45041.638888888898</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H48" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="I48" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="J48" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="K48" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>30</v>
+        <v>132</v>
+      </c>
+      <c r="B49" s="4">
+        <v>7</v>
       </c>
       <c r="C49" s="3">
-        <v>45038.690972222197</v>
+        <v>45044.826388888898</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H49" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="I49" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="J49" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="K49" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>133</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>30</v>
+        <v>134</v>
+      </c>
+      <c r="B50" s="4">
+        <v>7</v>
       </c>
       <c r="C50" s="3">
-        <v>45038.809027777803</v>
+        <v>45045.572916666701</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F50" t="s">
         <v>33</v>
@@ -4410,5118 +4425,5187 @@
         <v>135</v>
       </c>
       <c r="H50" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I50" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="J50" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="K50" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>30</v>
+      <c r="B51" s="4">
+        <v>7</v>
       </c>
       <c r="C51" s="3">
-        <v>45039.548611111102</v>
+        <v>45045.590277777803</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G51" t="s">
         <v>137</v>
       </c>
       <c r="H51" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="I51" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="J51" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="K51" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3">
+        <v>45045.690972222197</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" t="s">
         <v>30</v>
-      </c>
-      <c r="C52" s="3">
-        <v>45039.638888888898</v>
-      </c>
-      <c r="D52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" t="s">
-        <v>45</v>
       </c>
       <c r="G52" t="s">
         <v>139</v>
       </c>
       <c r="H52" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="I52" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="J52" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="K52" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>30</v>
+      <c r="B53" s="4">
+        <v>7</v>
       </c>
       <c r="C53" s="3">
-        <v>45039.694444444402</v>
+        <v>45045.809027777803</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G53" t="s">
         <v>141</v>
       </c>
       <c r="H53" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="I53" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="J53" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="K53" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>30</v>
+      <c r="B54" s="4">
+        <v>7</v>
       </c>
       <c r="C54" s="3">
-        <v>45040.809027777803</v>
+        <v>45045.8125</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G54" t="s">
         <v>143</v>
       </c>
       <c r="H54" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I54" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="J54" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="K54" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>30</v>
+      <c r="B55" s="4">
+        <v>7</v>
       </c>
       <c r="C55" s="3">
-        <v>45041.638888888898</v>
+        <v>45046.548611111102</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
         <v>145</v>
       </c>
       <c r="H55" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I55" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="J55" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="K55" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>35</v>
+      <c r="B56" s="4">
+        <v>7</v>
       </c>
       <c r="C56" s="3">
-        <v>45044.826388888898</v>
+        <v>45046.638888888898</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G56" t="s">
         <v>147</v>
       </c>
       <c r="H56" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="I56" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="J56" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="K56" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>35</v>
+      <c r="B57" s="4">
+        <v>7</v>
       </c>
       <c r="C57" s="3">
-        <v>45045.572916666701</v>
+        <v>45046.694444444402</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
         <v>149</v>
       </c>
       <c r="H57" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="I57" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="J57" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="K57" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>150</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>35</v>
+      <c r="B58" s="4">
+        <v>8</v>
       </c>
       <c r="C58" s="3">
-        <v>45045.590277777803</v>
+        <v>45051.826388888898</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="H58" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="I58" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J58" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="K58" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>35</v>
+        <v>151</v>
+      </c>
+      <c r="B59" s="4">
+        <v>8</v>
       </c>
       <c r="C59" s="3">
-        <v>45045.690972222197</v>
+        <v>45052.572916666701</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
-      </c>
-      <c r="G59" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="I59" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J59" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="K59" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>35</v>
+        <v>152</v>
+      </c>
+      <c r="B60" s="4">
+        <v>8</v>
       </c>
       <c r="C60" s="3">
-        <v>45045.809027777803</v>
+        <v>45052.590277777803</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="H60" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="I60" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J60" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="K60" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>156</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>35</v>
+        <v>153</v>
+      </c>
+      <c r="B61" s="4">
+        <v>8</v>
       </c>
       <c r="C61" s="3">
-        <v>45045.8125</v>
+        <v>45052.690972222197</v>
       </c>
       <c r="D61" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="H61" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="I61" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="J61" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="K61" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>35</v>
+        <v>154</v>
+      </c>
+      <c r="B62" s="4">
+        <v>8</v>
       </c>
       <c r="C62" s="3">
-        <v>45046.548611111102</v>
+        <v>45052.809027777803</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="H62" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="I62" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J62" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="K62" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>35</v>
+        <v>155</v>
+      </c>
+      <c r="B63" s="4">
+        <v>8</v>
       </c>
       <c r="C63" s="3">
-        <v>45046.638888888898</v>
+        <v>45052.8125</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="H63" t="s">
         <v>314</v>
       </c>
       <c r="I63" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="J63" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="K63" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>162</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>35</v>
+        <v>156</v>
+      </c>
+      <c r="B64" s="4">
+        <v>8</v>
       </c>
       <c r="C64" s="3">
-        <v>45046.694444444402</v>
+        <v>45053.548611111102</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="H64" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="I64" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J64" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="K64" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>164</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>40</v>
+        <v>157</v>
+      </c>
+      <c r="B65" s="4">
+        <v>8</v>
       </c>
       <c r="C65" s="3">
-        <v>45051.826388888898</v>
+        <v>45053.638888888898</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H65" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="I65" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="J65" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="K65" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>165</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>40</v>
+        <v>158</v>
+      </c>
+      <c r="B66" s="4">
+        <v>8</v>
       </c>
       <c r="C66" s="3">
-        <v>45052.572916666701</v>
+        <v>45053.694444444402</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="I66" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="J66" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="K66" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>40</v>
+        <v>159</v>
+      </c>
+      <c r="B67" s="4">
+        <v>9</v>
       </c>
       <c r="C67" s="3">
-        <v>45052.590277777803</v>
+        <v>45058.805555555598</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
         <v>13</v>
       </c>
-      <c r="F67" t="s">
-        <v>38</v>
-      </c>
       <c r="H67" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="I67" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="J67" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="K67" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>40</v>
+        <v>160</v>
+      </c>
+      <c r="B68" s="4">
+        <v>9</v>
       </c>
       <c r="C68" s="3">
-        <v>45052.690972222197</v>
+        <v>45058.861111111102</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I68" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="J68" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="K68" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>168</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>40</v>
+        <v>161</v>
+      </c>
+      <c r="B69" s="4">
+        <v>9</v>
       </c>
       <c r="C69" s="3">
-        <v>45052.809027777803</v>
+        <v>45059.572916666701</v>
       </c>
       <c r="D69" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H69" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I69" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="J69" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="K69" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>169</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>40</v>
+        <v>162</v>
+      </c>
+      <c r="B70" s="4">
+        <v>9</v>
       </c>
       <c r="C70" s="3">
-        <v>45052.8125</v>
+        <v>45059.590277777803</v>
       </c>
       <c r="D70" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="E70" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="I70" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="J70" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="K70" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>170</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>40</v>
+        <v>164</v>
+      </c>
+      <c r="B71" s="4">
+        <v>9</v>
       </c>
       <c r="C71" s="3">
-        <v>45053.548611111102</v>
+        <v>45059.690972222197</v>
       </c>
       <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" t="s">
         <v>22</v>
       </c>
-      <c r="E71" t="s">
-        <v>23</v>
-      </c>
-      <c r="F71" t="s">
-        <v>42</v>
-      </c>
       <c r="H71" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="I71" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="J71" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="K71" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>171</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>165</v>
+      </c>
+      <c r="B72" s="4">
+        <v>9</v>
       </c>
       <c r="C72" s="3">
-        <v>45053.638888888898</v>
+        <v>45059.809027777803</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H72" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="I72" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="J72" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="K72" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>172</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>40</v>
+        <v>166</v>
+      </c>
+      <c r="B73" s="4">
+        <v>9</v>
       </c>
       <c r="C73" s="3">
-        <v>45053.694444444402</v>
+        <v>45059.8125</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H73" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I73" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="J73" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="K73" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>173</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>44</v>
+        <v>167</v>
+      </c>
+      <c r="B74" s="4">
+        <v>9</v>
       </c>
       <c r="C74" s="3">
-        <v>45058.805555555598</v>
+        <v>45060.548611111102</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I74" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="J74" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="K74" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>174</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>44</v>
+        <v>168</v>
+      </c>
+      <c r="B75" s="4">
+        <v>9</v>
       </c>
       <c r="C75" s="3">
-        <v>45058.861111111102</v>
+        <v>45060.694444444402</v>
       </c>
       <c r="D75" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H75" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="I75" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="J75" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="K75" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>175</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>169</v>
+      </c>
+      <c r="B76" s="4">
+        <v>10</v>
       </c>
       <c r="C76" s="3">
-        <v>45059.572916666701</v>
+        <v>45065.826388888898</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="H76" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="I76" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="J76" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="K76" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>176</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>44</v>
+        <v>170</v>
+      </c>
+      <c r="B77" s="4">
+        <v>10</v>
       </c>
       <c r="C77" s="3">
-        <v>45059.590277777803</v>
+        <v>45066.572916666701</v>
       </c>
       <c r="D77" t="s">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H77" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="I77" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J77" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="K77" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>178</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>44</v>
+        <v>171</v>
+      </c>
+      <c r="B78" s="4">
+        <v>10</v>
       </c>
       <c r="C78" s="3">
-        <v>45059.690972222197</v>
+        <v>45066.590277777803</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H78" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I78" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="J78" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="K78" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>179</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>44</v>
+        <v>173</v>
+      </c>
+      <c r="B79" s="4">
+        <v>10</v>
       </c>
       <c r="C79" s="3">
-        <v>45059.809027777803</v>
+        <v>45066.690972222197</v>
       </c>
       <c r="D79" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I79" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="J79" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="K79" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>180</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>44</v>
+        <v>174</v>
+      </c>
+      <c r="B80" s="4">
+        <v>10</v>
       </c>
       <c r="C80" s="3">
-        <v>45059.8125</v>
+        <v>45066.8125</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H80" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="I80" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="J80" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="K80" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>181</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>44</v>
+        <v>175</v>
+      </c>
+      <c r="B81" s="4">
+        <v>10</v>
       </c>
       <c r="C81" s="3">
-        <v>45060.548611111102</v>
+        <v>45066.819444444402</v>
       </c>
       <c r="D81" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H81" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="I81" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="J81" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="K81" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>182</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>44</v>
+        <v>176</v>
+      </c>
+      <c r="B82" s="4">
+        <v>10</v>
       </c>
       <c r="C82" s="3">
-        <v>45060.694444444402</v>
+        <v>45067.548611111102</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H82" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="I82" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J82" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="K82" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>183</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>48</v>
+        <v>177</v>
+      </c>
+      <c r="B83" s="4">
+        <v>10</v>
       </c>
       <c r="C83" s="3">
-        <v>45065.826388888898</v>
+        <v>45067.638888888898</v>
       </c>
       <c r="D83" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="I83" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="J83" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="K83" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>184</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>48</v>
+        <v>178</v>
+      </c>
+      <c r="B84" s="4">
+        <v>10</v>
       </c>
       <c r="C84" s="3">
-        <v>45066.572916666701</v>
+        <v>45067.694444444402</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="I84" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="J84" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="K84" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>185</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>48</v>
+        <v>179</v>
+      </c>
+      <c r="B85" s="4">
+        <v>11</v>
       </c>
       <c r="C85" s="3">
-        <v>45066.590277777803</v>
+        <v>45072.826388888898</v>
       </c>
       <c r="D85" t="s">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H85" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="I85" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="J85" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="K85" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>187</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>48</v>
+        <v>180</v>
+      </c>
+      <c r="B86" s="4">
+        <v>11</v>
       </c>
       <c r="C86" s="3">
-        <v>45066.690972222197</v>
+        <v>45073.572916666701</v>
       </c>
       <c r="D86" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H86" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="I86" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="J86" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="K86" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>188</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>48</v>
+        <v>181</v>
+      </c>
+      <c r="B87" s="4">
+        <v>11</v>
       </c>
       <c r="C87" s="3">
-        <v>45066.8125</v>
+        <v>45073.590277777803</v>
       </c>
       <c r="D87" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="I87" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J87" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="K87" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>189</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>48</v>
+        <v>182</v>
+      </c>
+      <c r="B88" s="4">
+        <v>11</v>
       </c>
       <c r="C88" s="3">
-        <v>45066.819444444402</v>
+        <v>45073.690972222197</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E88" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H88" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="I88" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="J88" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="K88" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>190</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>48</v>
+        <v>183</v>
+      </c>
+      <c r="B89" s="4">
+        <v>11</v>
       </c>
       <c r="C89" s="3">
-        <v>45067.548611111102</v>
+        <v>45073.809027777803</v>
       </c>
       <c r="D89" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H89" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="I89" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="J89" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="K89" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>191</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>48</v>
+        <v>185</v>
+      </c>
+      <c r="B90" s="4">
+        <v>11</v>
       </c>
       <c r="C90" s="3">
-        <v>45067.638888888898</v>
+        <v>45073.8125</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H90" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="I90" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J90" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="K90" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>192</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>186</v>
+      </c>
+      <c r="B91" s="4">
+        <v>11</v>
       </c>
       <c r="C91" s="3">
-        <v>45067.694444444402</v>
+        <v>45074.548611111102</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="I91" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="J91" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="K91" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>193</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>187</v>
+      </c>
+      <c r="B92" s="4">
+        <v>11</v>
       </c>
       <c r="C92" s="3">
-        <v>45072.826388888898</v>
+        <v>45074.638888888898</v>
       </c>
       <c r="D92" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="I92" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="J92" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="K92" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>194</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>50</v>
+        <v>188</v>
+      </c>
+      <c r="B93" s="4">
+        <v>11</v>
       </c>
       <c r="C93" s="3">
-        <v>45073.572916666701</v>
+        <v>45074.694444444402</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H93" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="I93" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="J93" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="K93" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>195</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>50</v>
+        <v>189</v>
+      </c>
+      <c r="B94" s="4">
+        <v>12</v>
       </c>
       <c r="C94" s="3">
-        <v>45073.590277777803</v>
+        <v>45079.826388888898</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H94" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="I94" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="J94" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="K94" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>196</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>190</v>
+      </c>
+      <c r="B95" s="4">
+        <v>12</v>
       </c>
       <c r="C95" s="3">
-        <v>45073.690972222197</v>
+        <v>45080.572916666701</v>
       </c>
       <c r="D95" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H95" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="I95" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="J95" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="K95" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>197</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>191</v>
+      </c>
+      <c r="B96" s="4">
+        <v>12</v>
       </c>
       <c r="C96" s="3">
-        <v>45073.809027777803</v>
+        <v>45080.690972222197</v>
       </c>
       <c r="D96" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I96" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="J96" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="K96" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>199</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>50</v>
+        <v>192</v>
+      </c>
+      <c r="B97" s="4">
+        <v>12</v>
       </c>
       <c r="C97" s="3">
-        <v>45073.8125</v>
+        <v>45080.809027777803</v>
       </c>
       <c r="D97" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H97" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="I97" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="J97" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="K97" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>200</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>50</v>
+        <v>193</v>
+      </c>
+      <c r="B98" s="4">
+        <v>12</v>
       </c>
       <c r="C98" s="3">
-        <v>45074.548611111102</v>
+        <v>45080.8125</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H98" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I98" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="J98" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="K98" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>201</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>50</v>
+        <v>194</v>
+      </c>
+      <c r="B99" s="4">
+        <v>12</v>
       </c>
       <c r="C99" s="3">
-        <v>45074.638888888898</v>
+        <v>45081.548611111102</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H99" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="I99" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="J99" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="K99" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>202</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>195</v>
+      </c>
+      <c r="B100" s="4">
+        <v>12</v>
       </c>
       <c r="C100" s="3">
-        <v>45074.694444444402</v>
+        <v>45081.694444444402</v>
       </c>
       <c r="D100" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H100" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="I100" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="J100" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="K100" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>203</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>53</v>
+        <v>196</v>
+      </c>
+      <c r="B101" s="4">
+        <v>13</v>
       </c>
       <c r="C101" s="3">
-        <v>45079.826388888898</v>
+        <v>45085.805555555598</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H101" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I101" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="J101" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="K101" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>204</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>53</v>
+        <v>197</v>
+      </c>
+      <c r="B102" s="4">
+        <v>13</v>
       </c>
       <c r="C102" s="3">
-        <v>45080.572916666701</v>
+        <v>45086.826388888898</v>
       </c>
       <c r="D102" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E102" t="s">
         <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I102" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="J102" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="K102" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>205</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>53</v>
+        <v>198</v>
+      </c>
+      <c r="B103" s="4">
+        <v>13</v>
       </c>
       <c r="C103" s="3">
-        <v>45080.690972222197</v>
+        <v>45087.572916666701</v>
       </c>
       <c r="D103" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H103" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="I103" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="J103" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="K103" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>206</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>53</v>
+        <v>199</v>
+      </c>
+      <c r="B104" s="4">
+        <v>13</v>
       </c>
       <c r="C104" s="3">
-        <v>45080.809027777803</v>
+        <v>45087.690972222197</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I104" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J104" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="K104" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>53</v>
+        <v>200</v>
+      </c>
+      <c r="B105" s="4">
+        <v>13</v>
       </c>
       <c r="C105" s="3">
-        <v>45080.8125</v>
+        <v>45087.809027777803</v>
       </c>
       <c r="D105" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="E105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="H105" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I105" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="J105" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="K105" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>208</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>53</v>
+        <v>201</v>
+      </c>
+      <c r="B106" s="4">
+        <v>13</v>
       </c>
       <c r="C106" s="3">
-        <v>45081.548611111102</v>
+        <v>45088.638888888898</v>
       </c>
       <c r="D106" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H106" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="I106" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="J106" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="K106" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>209</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>53</v>
+        <v>202</v>
+      </c>
+      <c r="B107" s="4">
+        <v>13</v>
       </c>
       <c r="C107" s="3">
-        <v>45081.694444444402</v>
+        <v>45088.802083333299</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H107" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="I107" t="s">
         <v>316</v>
       </c>
       <c r="J107" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="K107" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>210</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>55</v>
+        <v>203</v>
+      </c>
+      <c r="B108" s="4">
+        <v>13</v>
       </c>
       <c r="C108" s="3">
-        <v>45085.805555555598</v>
+        <v>45089.638888888898</v>
       </c>
       <c r="D108" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="I108" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="J108" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="K108" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>211</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>55</v>
+        <v>204</v>
+      </c>
+      <c r="B109" s="4">
+        <v>14</v>
       </c>
       <c r="C109" s="3">
-        <v>45086.826388888898</v>
+        <v>45092.819444444402</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="I109" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="J109" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="K109" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>212</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>55</v>
+        <v>205</v>
+      </c>
+      <c r="B110" s="4">
+        <v>14</v>
       </c>
       <c r="C110" s="3">
-        <v>45087.572916666701</v>
+        <v>45093.826388888898</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H110" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="I110" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="J110" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="K110" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>213</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>55</v>
+        <v>206</v>
+      </c>
+      <c r="B111" s="4">
+        <v>14</v>
       </c>
       <c r="C111" s="3">
-        <v>45087.690972222197</v>
+        <v>45094.690972222197</v>
       </c>
       <c r="D111" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H111" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="I111" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="J111" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="K111" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>214</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>55</v>
+        <v>207</v>
+      </c>
+      <c r="B112" s="4">
+        <v>14</v>
       </c>
       <c r="C112" s="3">
-        <v>45087.809027777803</v>
+        <v>45094.809027777803</v>
       </c>
       <c r="D112" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="H112" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="I112" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J112" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="K112" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>215</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>208</v>
+      </c>
+      <c r="B113" s="4">
+        <v>14</v>
       </c>
       <c r="C113" s="3">
-        <v>45088.638888888898</v>
+        <v>45095.548611111102</v>
       </c>
       <c r="D113" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
       <c r="E113" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H113" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I113" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="J113" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="K113" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>216</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>55</v>
+        <v>209</v>
+      </c>
+      <c r="B114" s="4">
+        <v>14</v>
       </c>
       <c r="C114" s="3">
-        <v>45088.802083333299</v>
+        <v>45095.694444444402</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H114" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="I114" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="J114" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="K114" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>217</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>55</v>
+        <v>210</v>
+      </c>
+      <c r="B115" s="4">
+        <v>15</v>
       </c>
       <c r="C115" s="3">
-        <v>45089.638888888898</v>
+        <v>45099.805555555598</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E115" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H115" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="I115" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="J115" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="K115" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>218</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>211</v>
+      </c>
+      <c r="B116" s="4">
+        <v>15</v>
       </c>
       <c r="C116" s="3">
-        <v>45092.819444444402</v>
+        <v>45100.826388888898</v>
       </c>
       <c r="D116" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E116" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H116" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I116" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J116" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="K116" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>219</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>57</v>
+        <v>212</v>
+      </c>
+      <c r="B117" s="4">
+        <v>15</v>
       </c>
       <c r="C117" s="3">
-        <v>45093.826388888898</v>
+        <v>45101.690972222197</v>
       </c>
       <c r="D117" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E117" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H117" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="I117" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="J117" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="K117" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>220</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>57</v>
+        <v>213</v>
+      </c>
+      <c r="B118" s="4">
+        <v>15</v>
       </c>
       <c r="C118" s="3">
-        <v>45094.690972222197</v>
+        <v>45101.809027777803</v>
       </c>
       <c r="D118" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H118" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="I118" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="J118" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="K118" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>221</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>57</v>
+        <v>214</v>
+      </c>
+      <c r="B119" s="4">
+        <v>15</v>
       </c>
       <c r="C119" s="3">
-        <v>45094.809027777803</v>
+        <v>45102.548611111102</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
       </c>
       <c r="E119" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H119" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I119" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="J119" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="K119" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>222</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>57</v>
+        <v>215</v>
+      </c>
+      <c r="B120" s="4">
+        <v>15</v>
       </c>
       <c r="C120" s="3">
-        <v>45095.548611111102</v>
+        <v>45102.694444444402</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H120" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="I120" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="J120" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="K120" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>223</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>57</v>
+        <v>216</v>
+      </c>
+      <c r="B121" s="4">
+        <v>16</v>
       </c>
       <c r="C121" s="3">
-        <v>45095.694444444402</v>
+        <v>45106.805555555598</v>
       </c>
       <c r="D121" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E121" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H121" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I121" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="J121" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="K121" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>224</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>59</v>
+        <v>220</v>
+      </c>
+      <c r="B122" s="4">
+        <v>16</v>
       </c>
       <c r="C122" s="3">
-        <v>45099.805555555598</v>
+        <v>45107.826388888891</v>
       </c>
       <c r="D122" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="E122" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" t="s">
         <v>13</v>
-      </c>
-      <c r="F122" t="s">
-        <v>27</v>
       </c>
       <c r="H122" t="s">
         <v>315</v>
       </c>
       <c r="I122" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="J122" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="K122" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>225</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>59</v>
+        <v>221</v>
+      </c>
+      <c r="B123" s="4">
+        <v>16</v>
       </c>
       <c r="C123" s="3">
-        <v>45100.826388888898</v>
+        <v>45108.572916666664</v>
       </c>
       <c r="D123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E123" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H123" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="I123" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="J123" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="K123" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>226</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>59</v>
+        <v>222</v>
+      </c>
+      <c r="B124" s="4">
+        <v>16</v>
       </c>
       <c r="C124" s="3">
-        <v>45101.690972222197</v>
+        <v>45108.572916666664</v>
       </c>
       <c r="D124" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H124" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="I124" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="J124" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="K124" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>227</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>59</v>
+        <v>218</v>
+      </c>
+      <c r="B125" s="4">
+        <v>16</v>
       </c>
       <c r="C125" s="3">
-        <v>45101.809027777803</v>
+        <v>45108.690972222219</v>
       </c>
       <c r="D125" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E125" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="I125" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="J125" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="K125" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>228</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>59</v>
+        <v>217</v>
+      </c>
+      <c r="B126" s="4">
+        <v>16</v>
       </c>
       <c r="C126" s="3">
-        <v>45102.548611111102</v>
+        <v>45108.809027777781</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
       </c>
       <c r="E126" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H126" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I126" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="J126" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="K126" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>229</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>59</v>
+        <v>219</v>
+      </c>
+      <c r="B127" s="4">
+        <v>16</v>
       </c>
       <c r="C127" s="3">
-        <v>45102.694444444402</v>
+        <v>45109.548611111109</v>
       </c>
       <c r="D127" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="H127" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="I127" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="J127" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="K127" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>230</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>62</v>
+        <v>223</v>
+      </c>
+      <c r="B128" s="4">
+        <v>16</v>
       </c>
       <c r="C128" s="3">
-        <v>45106.805555555598</v>
+        <v>45109.638888888898</v>
       </c>
       <c r="D128" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="E128" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F128" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H128" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="I128" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="J128" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="K128" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>234</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>62</v>
+        <v>225</v>
+      </c>
+      <c r="B129" s="5">
+        <v>16</v>
       </c>
       <c r="C129" s="3">
-        <v>45107.826388888891</v>
+        <v>45109.694444444402</v>
       </c>
       <c r="D129" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H129" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="I129" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="J129" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K129" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>235</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>62</v>
+        <v>230</v>
+      </c>
+      <c r="B130" s="4">
+        <v>17</v>
       </c>
       <c r="C130" s="3">
-        <v>45108.572916666664</v>
+        <v>45113.805555555555</v>
       </c>
       <c r="D130" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E130" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F130" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H130" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="I130" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="J130" t="s">
-        <v>464</v>
+        <v>350</v>
       </c>
       <c r="K130" t="s">
-        <v>670</v>
+        <v>549</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>236</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>62</v>
+        <v>232</v>
+      </c>
+      <c r="B131" s="4">
+        <v>17</v>
       </c>
       <c r="C131" s="3">
-        <v>45108.572916666664</v>
+        <v>45114.826388888891</v>
       </c>
       <c r="D131" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E131" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="I131" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J131" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="K131" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>232</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>62</v>
+        <v>226</v>
+      </c>
+      <c r="B132" s="4">
+        <v>17</v>
       </c>
       <c r="C132" s="3">
-        <v>45108.690972222219</v>
+        <v>45115.572916666664</v>
       </c>
       <c r="D132" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H132" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I132" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="J132" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="K132" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>231</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>62</v>
+        <v>229</v>
+      </c>
+      <c r="B133" s="4">
+        <v>17</v>
       </c>
       <c r="C133" s="3">
-        <v>45108.809027777781</v>
+        <v>45115.690972222197</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H133" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="I133" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="J133" t="s">
-        <v>460</v>
+        <v>355</v>
       </c>
       <c r="K133" t="s">
-        <v>666</v>
+        <v>554</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>233</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>62</v>
+        <v>231</v>
+      </c>
+      <c r="B134" s="4">
+        <v>17</v>
       </c>
       <c r="C134" s="3">
-        <v>45109.548611111109</v>
+        <v>45115.809027777781</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F134" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H134" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="I134" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="J134" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="K134" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>237</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>62</v>
+        <v>233</v>
+      </c>
+      <c r="B135" s="4">
+        <v>17</v>
       </c>
       <c r="C135" s="3">
-        <v>45109.638888888898</v>
+        <v>45115.819444444445</v>
       </c>
       <c r="D135" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="E135" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H135" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="I135" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="J135" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="K135" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>239</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>62</v>
+        <v>228</v>
+      </c>
+      <c r="B136" s="4">
+        <v>17</v>
       </c>
       <c r="C136" s="3">
-        <v>45109.694444444402</v>
+        <v>45116.548611111109</v>
       </c>
       <c r="D136" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E136" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="I136" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="J136" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="K136" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>244</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>65</v>
+        <v>227</v>
+      </c>
+      <c r="B137" s="4">
+        <v>17</v>
       </c>
       <c r="C137" s="3">
-        <v>45113.805555555555</v>
+        <v>45116.638888888891</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E137" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H137" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I137" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="J137" t="s">
-        <v>371</v>
+        <v>448</v>
       </c>
       <c r="K137" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>246</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>65</v>
+        <v>234</v>
+      </c>
+      <c r="B138" s="4">
+        <v>17</v>
       </c>
       <c r="C138" s="3">
-        <v>45114.826388888891</v>
+        <v>45116.694444444402</v>
       </c>
       <c r="D138" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E138" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H138" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="I138" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="J138" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="K138" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>240</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>65</v>
+        <v>241</v>
+      </c>
+      <c r="B139" s="4">
+        <v>18</v>
       </c>
       <c r="C139" s="3">
-        <v>45115.572916666664</v>
+        <v>45120.805555555555</v>
       </c>
       <c r="D139" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E139" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H139" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="I139" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="J139" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K139" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>243</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>65</v>
+        <v>239</v>
+      </c>
+      <c r="B140" s="4">
+        <v>18</v>
       </c>
       <c r="C140" s="3">
-        <v>45115.690972222197</v>
+        <v>45121.826388888891</v>
       </c>
       <c r="D140" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="I140" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="J140" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="K140" t="s">
-        <v>582</v>
+        <v>657</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>245</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>65</v>
+        <v>236</v>
+      </c>
+      <c r="B141" s="4">
+        <v>18</v>
       </c>
       <c r="C141" s="3">
-        <v>45115.809027777781</v>
+        <v>45122.572916666664</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E141" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F141" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H141" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="I141" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J141" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="K141" t="s">
-        <v>677</v>
+        <v>654</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>247</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>65</v>
+        <v>238</v>
+      </c>
+      <c r="B142" s="4">
+        <v>18</v>
       </c>
       <c r="C142" s="3">
-        <v>45115.819444444445</v>
+        <v>45122.590277777803</v>
       </c>
       <c r="D142" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E142" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F142" t="s">
         <v>32</v>
       </c>
       <c r="H142" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="I142" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="J142" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="K142" t="s">
-        <v>679</v>
+        <v>656</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>242</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>65</v>
+        <v>235</v>
+      </c>
+      <c r="B143" s="4">
+        <v>18</v>
       </c>
       <c r="C143" s="3">
-        <v>45116.548611111109</v>
+        <v>45122.690972222219</v>
       </c>
       <c r="D143" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="E143" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H143" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I143" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="J143" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="K143" t="s">
-        <v>676</v>
+        <v>653</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>241</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>65</v>
+        <v>237</v>
+      </c>
+      <c r="B144" s="4">
+        <v>18</v>
       </c>
       <c r="C144" s="3">
-        <v>45116.638888888891</v>
+        <v>45122.809027777781</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="E144" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H144" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="I144" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="J144" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="K144" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>248</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>65</v>
+        <v>242</v>
+      </c>
+      <c r="B145" s="4">
+        <v>18</v>
       </c>
       <c r="C145" s="3">
-        <v>45116.694444444402</v>
+        <v>45122.819444444445</v>
       </c>
       <c r="D145" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E145" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F145" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H145" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="I145" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="J145" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="K145" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>255</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>67</v>
+        <v>240</v>
+      </c>
+      <c r="B146" s="4">
+        <v>18</v>
       </c>
       <c r="C146" s="3">
-        <v>45120.805555555555</v>
+        <v>45123.548611111109</v>
       </c>
       <c r="D146" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E146" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F146" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H146" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="I146" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="J146" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="K146" t="s">
-        <v>687</v>
+        <v>658</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>253</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>67</v>
+        <v>243</v>
+      </c>
+      <c r="B147" s="4">
+        <v>18</v>
       </c>
       <c r="C147" s="3">
-        <v>45121.826388888891</v>
+        <v>45123.694444444402</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E147" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F147" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H147" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I147" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="J147" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="K147" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>250</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>67</v>
+        <v>246</v>
+      </c>
+      <c r="B148" s="4">
+        <v>19</v>
       </c>
       <c r="C148" s="3">
-        <v>45122.572916666664</v>
+        <v>45128.826388888891</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E148" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H148" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I148" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="J148" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="K148" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>252</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
+      </c>
+      <c r="B149" s="4">
+        <v>19</v>
       </c>
       <c r="C149" s="3">
-        <v>45122.590277777803</v>
+        <v>45129.572916666664</v>
       </c>
       <c r="D149" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E149" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H149" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="I149" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="J149" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="K149" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>249</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>67</v>
+        <v>245</v>
+      </c>
+      <c r="B150" s="4">
+        <v>19</v>
       </c>
       <c r="C150" s="3">
-        <v>45122.690972222219</v>
+        <v>45129.590277777781</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H150" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="I150" t="s">
         <v>317</v>
       </c>
       <c r="J150" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="K150" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>251</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>67</v>
+        <v>244</v>
+      </c>
+      <c r="B151" s="4">
+        <v>19</v>
       </c>
       <c r="C151" s="3">
-        <v>45122.809027777781</v>
+        <v>45129.690972222219</v>
       </c>
       <c r="D151" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="E151" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151" t="s">
         <v>13</v>
       </c>
-      <c r="F151" t="s">
-        <v>42</v>
-      </c>
       <c r="H151" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I151" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="J151" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="K151" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>256</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>67</v>
+        <v>251</v>
+      </c>
+      <c r="B152" s="4">
+        <v>19</v>
       </c>
       <c r="C152" s="3">
-        <v>45122.819444444445</v>
+        <v>45129.819444444445</v>
       </c>
       <c r="D152" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="I152" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J152" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="K152" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>254</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>67</v>
+        <v>250</v>
+      </c>
+      <c r="B153" s="4">
+        <v>19</v>
       </c>
       <c r="C153" s="3">
-        <v>45123.548611111109</v>
+        <v>45130.548611111102</v>
       </c>
       <c r="D153" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153" t="s">
+        <v>32</v>
+      </c>
+      <c r="F153" t="s">
         <v>17</v>
       </c>
-      <c r="E153" t="s">
-        <v>18</v>
-      </c>
-      <c r="F153" t="s">
-        <v>41</v>
-      </c>
       <c r="H153" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I153" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="J153" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="K153" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>257</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>67</v>
+        <v>247</v>
+      </c>
+      <c r="B154" s="4">
+        <v>19</v>
       </c>
       <c r="C154" s="3">
-        <v>45123.694444444402</v>
+        <v>45130.548611111109</v>
       </c>
       <c r="D154" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="E154" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F154" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H154" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="I154" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="J154" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="K154" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>260</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
+      </c>
+      <c r="B155" s="4">
+        <v>19</v>
       </c>
       <c r="C155" s="3">
-        <v>45128.826388888891</v>
+        <v>45130.638888888891</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E155" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H155" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="I155" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J155" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="K155" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>263</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>69</v>
+        <v>252</v>
+      </c>
+      <c r="B156" s="4">
+        <v>19</v>
       </c>
       <c r="C156" s="3">
-        <v>45129.572916666664</v>
+        <v>45130.694444444402</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E156" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H156" t="s">
         <v>314</v>
       </c>
       <c r="I156" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J156" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="K156" t="s">
-        <v>695</v>
+        <v>670</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>259</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>69</v>
+        <v>253</v>
+      </c>
+      <c r="B157" s="4">
+        <v>20</v>
       </c>
       <c r="C157" s="3">
-        <v>45129.590277777781</v>
+        <v>45135.826388888898</v>
       </c>
       <c r="D157" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E157" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" t="s">
         <v>10</v>
       </c>
-      <c r="F157" t="s">
-        <v>19</v>
-      </c>
       <c r="H157" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="I157" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="J157" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="K157" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>258</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>69</v>
+        <v>259</v>
+      </c>
+      <c r="B158" s="4">
+        <v>20</v>
       </c>
       <c r="C158" s="3">
-        <v>45129.690972222219</v>
+        <v>45136.572916666664</v>
       </c>
       <c r="D158" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="E158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H158" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="I158" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="J158" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K158" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>265</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>69</v>
+        <v>255</v>
+      </c>
+      <c r="B159" s="4">
+        <v>20</v>
       </c>
       <c r="C159" s="3">
-        <v>45129.819444444445</v>
+        <v>45136.572916666701</v>
       </c>
       <c r="D159" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="E159" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H159" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I159" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="J159" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="K159" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>264</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>69</v>
+        <v>256</v>
+      </c>
+      <c r="B160" s="4">
+        <v>20</v>
       </c>
       <c r="C160" s="3">
-        <v>45130.548611111102</v>
+        <v>45136.690972222197</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E160" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H160" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="I160" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="J160" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="K160" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>261</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>69</v>
+        <v>254</v>
+      </c>
+      <c r="B161" s="4">
+        <v>20</v>
       </c>
       <c r="C161" s="3">
-        <v>45130.548611111109</v>
+        <v>45136.809027777781</v>
       </c>
       <c r="D161" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="E161" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H161" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I161" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J161" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="K161" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>262</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>69</v>
+        <v>260</v>
+      </c>
+      <c r="B162" s="4">
+        <v>20</v>
       </c>
       <c r="C162" s="3">
-        <v>45130.638888888891</v>
+        <v>45136.819444444445</v>
       </c>
       <c r="D162" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E162" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H162" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="I162" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="J162" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="K162" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>266</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>69</v>
+        <v>257</v>
+      </c>
+      <c r="B163" s="4">
+        <v>20</v>
       </c>
       <c r="C163" s="3">
-        <v>45130.694444444402</v>
+        <v>45137.548611111109</v>
       </c>
       <c r="D163" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E163" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H163" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="I163" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="J163" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="K163" t="s">
-        <v>698</v>
+        <v>675</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>267</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>71</v>
+        <v>258</v>
+      </c>
+      <c r="B164" s="4">
+        <v>20</v>
       </c>
       <c r="C164" s="3">
-        <v>45135.826388888898</v>
+        <v>45137.638888888891</v>
       </c>
       <c r="D164" t="s">
         <v>8</v>
       </c>
       <c r="E164" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F164" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H164" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="I164" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="J164" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="K164" t="s">
-        <v>699</v>
+        <v>676</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>273</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>71</v>
+        <v>261</v>
+      </c>
+      <c r="B165" s="4">
+        <v>20</v>
       </c>
       <c r="C165" s="3">
-        <v>45136.572916666664</v>
+        <v>45137.694444444402</v>
       </c>
       <c r="D165" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="E165" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H165" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="I165" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="J165" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="K165" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>269</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>71</v>
+        <v>268</v>
+      </c>
+      <c r="B166" s="4">
+        <v>21</v>
       </c>
       <c r="C166" s="3">
-        <v>45136.572916666701</v>
+        <v>45142.826388888898</v>
       </c>
       <c r="D166" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F166" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="H166" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I166" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="J166" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="K166" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>270</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>71</v>
+        <v>262</v>
+      </c>
+      <c r="B167" s="4">
+        <v>21</v>
       </c>
       <c r="C167" s="3">
-        <v>45136.690972222197</v>
+        <v>45143.572916666664</v>
       </c>
       <c r="D167" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" t="s">
         <v>31</v>
       </c>
-      <c r="E167" t="s">
-        <v>32</v>
-      </c>
       <c r="F167" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H167" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I167" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J167" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="K167" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>268</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>71</v>
+        <v>269</v>
+      </c>
+      <c r="B168" s="4">
+        <v>21</v>
       </c>
       <c r="C168" s="3">
-        <v>45136.809027777781</v>
+        <v>45143.590277777781</v>
       </c>
       <c r="D168" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E168" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H168" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="I168" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="J168" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K168" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>274</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>71</v>
+        <v>265</v>
+      </c>
+      <c r="B169" s="4">
+        <v>21</v>
       </c>
       <c r="C169" s="3">
-        <v>45136.819444444445</v>
+        <v>45143.690972222197</v>
       </c>
       <c r="D169" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E169" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F169" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="I169" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="J169" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="K169" t="s">
-        <v>706</v>
+        <v>683</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>271</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>71</v>
+        <v>263</v>
+      </c>
+      <c r="B170" s="4">
+        <v>21</v>
       </c>
       <c r="C170" s="3">
-        <v>45137.548611111109</v>
+        <v>45143.809027777781</v>
       </c>
       <c r="D170" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="E170" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F170" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H170" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="I170" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="J170" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="K170" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>272</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>71</v>
+        <v>264</v>
+      </c>
+      <c r="B171" s="4">
+        <v>21</v>
       </c>
       <c r="C171" s="3">
-        <v>45137.638888888891</v>
+        <v>45143.8125</v>
       </c>
       <c r="D171" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E171" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F171" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H171" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I171" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J171" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="K171" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>275</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>71</v>
+        <v>266</v>
+      </c>
+      <c r="B172" s="4">
+        <v>21</v>
       </c>
       <c r="C172" s="3">
-        <v>45137.694444444402</v>
+        <v>45144.548611111109</v>
       </c>
       <c r="D172" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="E172" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H172" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="I172" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="J172" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K172" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>282</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>73</v>
+        <v>267</v>
+      </c>
+      <c r="B173" s="4">
+        <v>21</v>
       </c>
       <c r="C173" s="3">
-        <v>45142.826388888898</v>
+        <v>45144.638888888891</v>
       </c>
       <c r="D173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E173" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H173" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="I173" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="J173" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="K173" t="s">
-        <v>714</v>
+        <v>685</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>276</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>73</v>
+        <v>270</v>
+      </c>
+      <c r="B174" s="4">
+        <v>21</v>
       </c>
       <c r="C174" s="3">
-        <v>45143.572916666664</v>
+        <v>45144.694444444402</v>
       </c>
       <c r="D174" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E174" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H174" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="I174" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="J174" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="K174" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>283</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>73</v>
+        <v>273</v>
+      </c>
+      <c r="B175" s="4">
+        <v>22</v>
       </c>
       <c r="C175" s="3">
-        <v>45143.590277777781</v>
+        <v>45149.826388888898</v>
       </c>
       <c r="D175" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E175" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H175" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="I175" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="J175" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="K175" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>279</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>73</v>
+        <v>275</v>
+      </c>
+      <c r="B176" s="4">
+        <v>22</v>
       </c>
       <c r="C176" s="3">
-        <v>45143.690972222197</v>
+        <v>45150.572916666664</v>
       </c>
       <c r="D176" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E176" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H176" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="I176" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J176" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="K176" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>277</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>73</v>
+      <c r="B177" s="4">
+        <v>22</v>
       </c>
       <c r="C177" s="3">
-        <v>45143.809027777781</v>
+        <v>45150.590277777781</v>
       </c>
       <c r="D177" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="E177" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F177" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H177" t="s">
         <v>315</v>
       </c>
       <c r="I177" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="J177" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K177" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>278</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>73</v>
+        <v>272</v>
+      </c>
+      <c r="B178" s="4">
+        <v>22</v>
       </c>
       <c r="C178" s="3">
-        <v>45143.8125</v>
+        <v>45150.690972222219</v>
       </c>
       <c r="D178" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E178" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H178" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="I178" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="J178" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="K178" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>280</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>73</v>
+        <v>271</v>
+      </c>
+      <c r="B179" s="4">
+        <v>22</v>
       </c>
       <c r="C179" s="3">
-        <v>45144.548611111109</v>
+        <v>45150.809027777781</v>
       </c>
       <c r="D179" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
       <c r="E179" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H179" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I179" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="J179" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="K179" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>281</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>73</v>
+        <v>274</v>
+      </c>
+      <c r="B180" s="4">
+        <v>22</v>
       </c>
       <c r="C180" s="3">
-        <v>45144.638888888891</v>
+        <v>45151.548611111109</v>
       </c>
       <c r="D180" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E180" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F180" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H180" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="I180" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="J180" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="K180" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>284</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>73</v>
+        <v>276</v>
+      </c>
+      <c r="B181" s="4">
+        <v>22</v>
       </c>
       <c r="C181" s="3">
-        <v>45144.694444444402</v>
+        <v>45151.638888888891</v>
       </c>
       <c r="D181" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E181" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F181" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H181" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="I181" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="J181" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="K181" t="s">
-        <v>716</v>
+        <v>694</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>287</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>76</v>
+        <v>279</v>
+      </c>
+      <c r="B182" s="4">
+        <v>22</v>
       </c>
       <c r="C182" s="3">
-        <v>45149.826388888898</v>
+        <v>45151.694444444402</v>
       </c>
       <c r="D182" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E182" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H182" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="I182" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J182" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="K182" t="s">
-        <v>719</v>
+        <v>697</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>289</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>76</v>
+        <v>278</v>
+      </c>
+      <c r="B183" s="4">
+        <v>22</v>
       </c>
       <c r="C183" s="3">
-        <v>45150.572916666664</v>
+        <v>45151.694444444445</v>
       </c>
       <c r="D183" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E183" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H183" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="I183" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="J183" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="K183" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>291</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>76</v>
+        <v>280</v>
+      </c>
+      <c r="B184" s="4">
+        <v>23</v>
       </c>
       <c r="C184" s="3">
-        <v>45150.590277777781</v>
+        <v>45156.826388888898</v>
       </c>
       <c r="D184" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H184" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="I184" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="J184" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="K184" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>286</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>76</v>
+        <v>284</v>
+      </c>
+      <c r="B185" s="4">
+        <v>23</v>
       </c>
       <c r="C185" s="3">
-        <v>45150.690972222219</v>
+        <v>45157.572916666664</v>
       </c>
       <c r="D185" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E185" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H185" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I185" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="J185" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="K185" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>285</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>76</v>
+        <v>281</v>
+      </c>
+      <c r="B186" s="4">
+        <v>23</v>
       </c>
       <c r="C186" s="3">
-        <v>45150.809027777781</v>
+        <v>45157.590277777781</v>
       </c>
       <c r="D186" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E186" t="s">
+        <v>25</v>
+      </c>
+      <c r="F186" t="s">
         <v>10</v>
       </c>
-      <c r="F186" t="s">
-        <v>27</v>
-      </c>
       <c r="H186" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="I186" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="J186" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="K186" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>288</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>76</v>
+        <v>282</v>
+      </c>
+      <c r="B187" s="4">
+        <v>23</v>
       </c>
       <c r="C187" s="3">
-        <v>45151.548611111109</v>
+        <v>45157.690972222219</v>
       </c>
       <c r="D187" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E187" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F187" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H187" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="I187" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J187" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="K187" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>290</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>76</v>
+        <v>285</v>
+      </c>
+      <c r="B188" s="4">
+        <v>23</v>
       </c>
       <c r="C188" s="3">
-        <v>45151.638888888891</v>
+        <v>45157.809027777781</v>
       </c>
       <c r="D188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E188" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F188" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H188" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="I188" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="J188" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="K188" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>293</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>76</v>
+        <v>287</v>
+      </c>
+      <c r="B189" s="4">
+        <v>23</v>
       </c>
       <c r="C189" s="3">
-        <v>45151.694444444402</v>
+        <v>45157.819444444445</v>
       </c>
       <c r="D189" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E189" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F189" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H189" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="I189" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="J189" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="K189" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>292</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>76</v>
+        <v>286</v>
+      </c>
+      <c r="B190" s="4">
+        <v>23</v>
       </c>
       <c r="C190" s="3">
-        <v>45151.694444444445</v>
+        <v>45158.548611111102</v>
       </c>
       <c r="D190" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E190" t="s">
         <v>23</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H190" t="s">
+        <v>313</v>
+      </c>
+      <c r="I190" t="s">
         <v>317</v>
       </c>
-      <c r="I190" t="s">
-        <v>320</v>
-      </c>
       <c r="J190" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="K190" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>294</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>78</v>
+        <v>283</v>
+      </c>
+      <c r="B191" s="4">
+        <v>23</v>
       </c>
       <c r="C191" s="3">
-        <v>45156.826388888898</v>
+        <v>45158.638888888898</v>
       </c>
       <c r="D191" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E191" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F191" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H191" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="I191" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="J191" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="K191" t="s">
-        <v>726</v>
+        <v>701</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>298</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>78</v>
+        <v>288</v>
+      </c>
+      <c r="B192" s="4">
+        <v>23</v>
       </c>
       <c r="C192" s="3">
-        <v>45157.572916666664</v>
+        <v>45158.694444444402</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E192" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H192" t="s">
         <v>314</v>
       </c>
       <c r="I192" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="J192" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="K192" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>295</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>78</v>
+        <v>289</v>
+      </c>
+      <c r="B193" s="4">
+        <v>24</v>
       </c>
       <c r="C193" s="3">
-        <v>45157.590277777781</v>
+        <v>45163.5</v>
       </c>
       <c r="D193" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E193" t="s">
+        <v>21</v>
+      </c>
+      <c r="F193" t="s">
         <v>32</v>
       </c>
-      <c r="F193" t="s">
-        <v>10</v>
-      </c>
       <c r="H193" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I193" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="J193" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="K193" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>296</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>78</v>
+        <v>290</v>
+      </c>
+      <c r="B194" s="4">
+        <v>24</v>
       </c>
       <c r="C194" s="3">
-        <v>45157.690972222219</v>
+        <v>45163.5</v>
       </c>
       <c r="D194" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E194" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H194" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="I194" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="J194" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="K194" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>299</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>78</v>
+        <v>291</v>
+      </c>
+      <c r="B195" s="4">
+        <v>24</v>
       </c>
       <c r="C195" s="3">
-        <v>45157.809027777781</v>
+        <v>45163.5</v>
       </c>
       <c r="D195" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E195" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I195" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J195" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="K195" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>292</v>
+      </c>
+      <c r="B196" s="4">
+        <v>24</v>
+      </c>
+      <c r="C196" s="3">
+        <v>45163.5</v>
+      </c>
+      <c r="D196" t="s">
+        <v>120</v>
+      </c>
+      <c r="E196" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" t="s">
+        <v>23</v>
+      </c>
+      <c r="H196" t="s">
         <v>301</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C196" s="3">
-        <v>45157.819444444445</v>
-      </c>
-      <c r="D196" t="s">
-        <v>22</v>
-      </c>
-      <c r="E196" t="s">
-        <v>38</v>
-      </c>
-      <c r="F196" t="s">
-        <v>33</v>
-      </c>
-      <c r="H196" t="s">
-        <v>326</v>
-      </c>
       <c r="I196" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="J196" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="K196" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>300</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>78</v>
+        <v>293</v>
+      </c>
+      <c r="B197" s="4">
+        <v>24</v>
       </c>
       <c r="C197" s="3">
-        <v>45158.548611111102</v>
+        <v>45163.5</v>
       </c>
       <c r="D197" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E197" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F197" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H197" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="I197" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="J197" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="K197" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>297</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>78</v>
+        <v>294</v>
+      </c>
+      <c r="B198" s="4">
+        <v>24</v>
       </c>
       <c r="C198" s="3">
-        <v>45158.638888888898</v>
+        <v>45163.5</v>
       </c>
       <c r="D198" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E198" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H198" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="I198" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="J198" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="K198" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>302</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>78</v>
+        <v>295</v>
+      </c>
+      <c r="B199" s="4">
+        <v>24</v>
       </c>
       <c r="C199" s="3">
-        <v>45158.694444444402</v>
+        <v>45163.5</v>
       </c>
       <c r="D199" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E199" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F199" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H199" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="I199" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="J199" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="K199" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>296</v>
+      </c>
+      <c r="B200" s="4">
+        <v>24</v>
+      </c>
+      <c r="C200" s="3">
+        <v>45163.520833333299</v>
+      </c>
+      <c r="D200" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" t="s">
+        <v>20</v>
+      </c>
+      <c r="F200" t="s">
+        <v>9</v>
+      </c>
+      <c r="H200" t="s">
         <v>303</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C200" s="3">
-        <v>45163.5</v>
-      </c>
-      <c r="D200" t="s">
-        <v>51</v>
-      </c>
-      <c r="E200" t="s">
-        <v>24</v>
-      </c>
-      <c r="F200" t="s">
-        <v>45</v>
-      </c>
-      <c r="H200" t="s">
-        <v>324</v>
-      </c>
       <c r="I200" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="J200" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="K200" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>304</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>80</v>
+        <v>297</v>
+      </c>
+      <c r="B201" s="4">
+        <v>24</v>
       </c>
       <c r="C201" s="3">
-        <v>45163.5</v>
+        <v>45163.583333333299</v>
       </c>
       <c r="D201" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F201" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H201" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="I201" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="J201" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K201" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>305</v>
+        <v>716</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>80</v>
+        <v>746</v>
       </c>
       <c r="C202" s="3">
-        <v>45163.5</v>
+        <v>45176.805555555598</v>
       </c>
       <c r="D202" t="s">
         <v>8</v>
       </c>
       <c r="E202" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="G202" t="s">
+        <v>717</v>
       </c>
       <c r="H202" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="I202" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="J202" t="s">
-        <v>531</v>
+        <v>735</v>
       </c>
       <c r="K202" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>306</v>
+        <v>718</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>80</v>
+        <v>745</v>
       </c>
       <c r="C203" s="3">
-        <v>45163.5</v>
+        <v>45177.826388888898</v>
       </c>
       <c r="D203" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="E203" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="G203" t="s">
+        <v>719</v>
       </c>
       <c r="H203" t="s">
+        <v>309</v>
+      </c>
+      <c r="I203" t="s">
         <v>315</v>
       </c>
-      <c r="I203" t="s">
-        <v>327</v>
-      </c>
       <c r="J203" t="s">
-        <v>532</v>
+        <v>736</v>
       </c>
       <c r="K203" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>307</v>
+        <v>720</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>80</v>
+        <v>745</v>
       </c>
       <c r="C204" s="3">
-        <v>45163.5</v>
+        <v>45178.638888888898</v>
       </c>
       <c r="D204" t="s">
         <v>8</v>
       </c>
       <c r="E204" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F204" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="G204" t="s">
+        <v>721</v>
       </c>
       <c r="H204" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="I204" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="J204" t="s">
-        <v>533</v>
+        <v>737</v>
       </c>
       <c r="K204" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>308</v>
+        <v>722</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>80</v>
+        <v>746</v>
       </c>
       <c r="C205" s="3">
-        <v>45163.5</v>
+        <v>45178.809027777803</v>
       </c>
       <c r="D205" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="E205" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="G205" t="s">
+        <v>723</v>
       </c>
       <c r="H205" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I205" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="J205" t="s">
-        <v>534</v>
+        <v>738</v>
       </c>
       <c r="K205" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>724</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C206" s="3">
+        <v>45184.826388888898</v>
+      </c>
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" t="s">
+        <v>22</v>
+      </c>
+      <c r="F206" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" t="s">
+        <v>725</v>
+      </c>
+      <c r="H206" t="s">
+        <v>304</v>
+      </c>
+      <c r="I206" t="s">
         <v>309</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C206" s="3">
-        <v>45163.5</v>
-      </c>
-      <c r="D206" t="s">
-        <v>63</v>
-      </c>
-      <c r="E206" t="s">
-        <v>33</v>
-      </c>
-      <c r="F206" t="s">
-        <v>27</v>
-      </c>
-      <c r="H206" t="s">
-        <v>329</v>
-      </c>
-      <c r="I206" t="s">
-        <v>318</v>
-      </c>
       <c r="J206" t="s">
-        <v>535</v>
+        <v>411</v>
       </c>
       <c r="K206" t="s">
-        <v>741</v>
+        <v>610</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>310</v>
+        <v>726</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>80</v>
+        <v>747</v>
       </c>
       <c r="C207" s="3">
-        <v>45163.520833333299</v>
+        <v>45185.819444444402</v>
       </c>
       <c r="D207" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E207" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F207" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="G207" t="s">
+        <v>727</v>
       </c>
       <c r="H207" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="I207" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="J207" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="K207" t="s">
-        <v>742</v>
+        <v>696</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>728</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C208" s="3">
+        <v>45191.826388888898</v>
+      </c>
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" t="s">
+        <v>28</v>
+      </c>
+      <c r="G208" t="s">
+        <v>729</v>
+      </c>
+      <c r="H208" t="s">
         <v>311</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C208" s="3">
-        <v>45163.583333333299</v>
-      </c>
-      <c r="D208" t="s">
-        <v>60</v>
-      </c>
-      <c r="E208" t="s">
-        <v>19</v>
-      </c>
-      <c r="F208" t="s">
-        <v>38</v>
-      </c>
-      <c r="H208" t="s">
-        <v>331</v>
-      </c>
       <c r="I208" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="J208" t="s">
-        <v>537</v>
+        <v>392</v>
       </c>
       <c r="K208" t="s">
-        <v>743</v>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>730</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C209" s="3">
+        <v>45192.71875</v>
+      </c>
+      <c r="D209" t="s">
+        <v>37</v>
+      </c>
+      <c r="E209" t="s">
+        <v>21</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" t="s">
+        <v>731</v>
+      </c>
+      <c r="H209" t="s">
+        <v>310</v>
+      </c>
+      <c r="I209" t="s">
+        <v>309</v>
+      </c>
+      <c r="J209" t="s">
+        <v>739</v>
+      </c>
+      <c r="K209" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>732</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C210" s="3">
+        <v>45199.604166666701</v>
+      </c>
+      <c r="D210" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210" t="s">
+        <v>14</v>
+      </c>
+      <c r="F210" t="s">
+        <v>21</v>
+      </c>
+      <c r="G210" t="s">
+        <v>734</v>
+      </c>
+      <c r="H210" t="s">
+        <v>311</v>
+      </c>
+      <c r="I210" t="s">
+        <v>310</v>
+      </c>
+      <c r="J210" t="s">
+        <v>499</v>
+      </c>
+      <c r="K210" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K208" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>

--- a/AFLFixtures2023.xlsx
+++ b/AFLFixtures2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Herman\Desktop\Python\Checkthepunt\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609B47F4-A89D-4AF0-85A7-7C1B81F71595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FA4377-A63E-4562-8DEF-F8354F4E4029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Fixture" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fixture!$A$1:$K$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fixture!$A$1:$K$195</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Fixture!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="725">
   <si>
     <t>Match Number</t>
   </si>
@@ -162,48 +162,12 @@
     <t>135 - 64</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>76 - 108</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>41 - 92</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>Optus Stadium</t>
   </si>
   <si>
-    <t>72 - 73</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>SCG</t>
   </si>
   <si>
-    <t>118 - 37</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>108 - 80</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>100 - 81</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -1011,24 +975,6 @@
     <t>collingwood-magpies-port-adelaide-power</t>
   </si>
   <si>
-    <t>adelaide-crows-richmond-tigers</t>
-  </si>
-  <si>
-    <t>western-bulldogs-st-kilda-saints</t>
-  </si>
-  <si>
-    <t>fremantle-dockers-north-melbourne-kangaroos</t>
-  </si>
-  <si>
-    <t>sydney-swans-hawthorn-hawks</t>
-  </si>
-  <si>
-    <t>essendon-bombers-gold-coast-suns</t>
-  </si>
-  <si>
-    <t>west-coast-eagles-greater-western-sydney-giants</t>
-  </si>
-  <si>
     <t>western-bulldogs-brisbane-lions</t>
   </si>
   <si>
@@ -1606,24 +1552,6 @@
   </si>
   <si>
     <t>Collingwood vs Port Adelaide</t>
-  </si>
-  <si>
-    <t>Adelaide Crows vs Richmond</t>
-  </si>
-  <si>
-    <t>Western Bulldogs vs St Kilda</t>
-  </si>
-  <si>
-    <t>Fremantle vs North Melbourne</t>
-  </si>
-  <si>
-    <t>Sydney Swans vs Hawthorn</t>
-  </si>
-  <si>
-    <t>Essendon vs Gold Coast Suns</t>
-  </si>
-  <si>
-    <t>West Coast Eagles vs GWS Giants</t>
   </si>
   <si>
     <t>Western Bulldogs vs Brisbane Lions</t>
@@ -2667,10 +2595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K210"/>
+  <dimension ref="A1:K204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,16 +2638,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2730,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>45336</v>
+        <v>45335</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -2745,16 +2673,16 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="I2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="J2" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="K2" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2765,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>45338</v>
+        <v>45336</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -2780,16 +2708,16 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="I3" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="J3" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K3" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2800,7 +2728,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>45008.805555555598</v>
+        <v>45339</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -2815,16 +2743,16 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J4" t="s">
         <v>309</v>
       </c>
-      <c r="I4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J4" t="s">
-        <v>321</v>
-      </c>
       <c r="K4" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2835,7 +2763,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>45009.829861111102</v>
+        <v>45340</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -2850,16 +2778,16 @@
         <v>38</v>
       </c>
       <c r="H5" t="s">
+        <v>298</v>
+      </c>
+      <c r="I5" t="s">
+        <v>292</v>
+      </c>
+      <c r="J5" t="s">
         <v>310</v>
       </c>
-      <c r="I5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J5" t="s">
-        <v>322</v>
-      </c>
       <c r="K5" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2870,7 +2798,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>45010.572916666701</v>
+        <v>45341</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -2885,331 +2813,331 @@
         <v>40</v>
       </c>
       <c r="H6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" t="s">
+        <v>291</v>
+      </c>
+      <c r="J6" t="s">
         <v>311</v>
       </c>
-      <c r="I6" t="s">
-        <v>303</v>
-      </c>
-      <c r="J6" t="s">
-        <v>323</v>
-      </c>
       <c r="K6" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>45010.690972222197</v>
+        <v>45015.805555555598</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
+        <v>301</v>
+      </c>
+      <c r="I7" t="s">
+        <v>298</v>
+      </c>
+      <c r="J7" t="s">
         <v>312</v>
       </c>
-      <c r="I7" t="s">
-        <v>300</v>
-      </c>
-      <c r="J7" t="s">
-        <v>324</v>
-      </c>
       <c r="K7" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>45010.809027777803</v>
+        <v>45016.826388888898</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I8" t="s">
+        <v>288</v>
+      </c>
+      <c r="J8" t="s">
         <v>313</v>
       </c>
-      <c r="I8" t="s">
-        <v>308</v>
-      </c>
-      <c r="J8" t="s">
-        <v>325</v>
-      </c>
       <c r="K8" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3">
-        <v>45010.8125</v>
+        <v>45017.572916666701</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I9" t="s">
+        <v>290</v>
+      </c>
+      <c r="J9" t="s">
         <v>314</v>
       </c>
-      <c r="I9" t="s">
-        <v>302</v>
-      </c>
-      <c r="J9" t="s">
-        <v>326</v>
-      </c>
       <c r="K9" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>45011.548611111102</v>
+        <v>45017.690972222197</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I10" t="s">
+        <v>297</v>
+      </c>
+      <c r="J10" t="s">
         <v>315</v>
       </c>
-      <c r="I10" t="s">
-        <v>307</v>
-      </c>
-      <c r="J10" t="s">
-        <v>327</v>
-      </c>
       <c r="K10" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>45011.638888888898</v>
+        <v>45017.809027777803</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
+        <v>296</v>
+      </c>
+      <c r="I11" t="s">
+        <v>304</v>
+      </c>
+      <c r="J11" t="s">
         <v>316</v>
       </c>
-      <c r="I11" t="s">
-        <v>305</v>
-      </c>
-      <c r="J11" t="s">
-        <v>328</v>
-      </c>
       <c r="K11" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>45011.763888888898</v>
+        <v>45017.8125</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I12" t="s">
+        <v>300</v>
+      </c>
+      <c r="J12" t="s">
         <v>317</v>
       </c>
-      <c r="I12" t="s">
-        <v>306</v>
-      </c>
-      <c r="J12" t="s">
-        <v>329</v>
-      </c>
       <c r="K12" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
       </c>
       <c r="C13" s="3">
-        <v>45015.805555555598</v>
+        <v>45018.590277777803</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="I13" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="J13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="K13" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>45016.826388888898</v>
+        <v>45018.638888888898</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="I14" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J14" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="K14" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="4">
         <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>45017.572916666701</v>
+        <v>45018.722222222197</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
         <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I15" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J15" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="K15" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3217,34 +3145,34 @@
         <v>62</v>
       </c>
       <c r="B16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>45017.690972222197</v>
+        <v>45022.815972222197</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
         <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="I16" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="J16" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="K16" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3252,34 +3180,34 @@
         <v>64</v>
       </c>
       <c r="B17" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>45017.809027777803</v>
+        <v>45023.680555555598</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
         <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="I17" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="J17" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="K17" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3287,34 +3215,34 @@
         <v>66</v>
       </c>
       <c r="B18" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
-        <v>45017.8125</v>
+        <v>45024.572916666701</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I18" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="J18" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K18" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3322,34 +3250,34 @@
         <v>68</v>
       </c>
       <c r="B19" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
-        <v>45018.590277777803</v>
+        <v>45024.690972222197</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
         <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="I19" t="s">
         <v>301</v>
       </c>
       <c r="J19" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="K19" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3357,34 +3285,34 @@
         <v>70</v>
       </c>
       <c r="B20" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
-        <v>45018.638888888898</v>
+        <v>45024.8125</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
         <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I20" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="J20" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="K20" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3392,34 +3320,34 @@
         <v>72</v>
       </c>
       <c r="B21" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>45018.722222222197</v>
+        <v>45024.8125</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
         <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="I21" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="J21" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="K21" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3430,31 +3358,31 @@
         <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>45022.815972222197</v>
+        <v>45025.590277777803</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
         <v>75</v>
       </c>
       <c r="H22" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="I22" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="J22" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="K22" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3465,31 +3393,31 @@
         <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>45023.680555555598</v>
+        <v>45025.722222222197</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
         <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I23" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="J23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="K23" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3500,31 +3428,31 @@
         <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>45024.572916666701</v>
+        <v>45026.638888888898</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="I24" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="J24" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="K24" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3532,19 +3460,19 @@
         <v>80</v>
       </c>
       <c r="B25" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>45024.690972222197</v>
+        <v>45029.819444444402</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
         <v>81</v>
@@ -3553,13 +3481,13 @@
         <v>300</v>
       </c>
       <c r="I25" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="J25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="K25" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3567,314 +3495,314 @@
         <v>82</v>
       </c>
       <c r="B26" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>45024.8125</v>
+        <v>45030.715277777803</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="I26" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="J26" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="K26" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>45024.8125</v>
+        <v>45030.840277777803</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
         <v>26</v>
       </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="I27" t="s">
         <v>303</v>
       </c>
       <c r="J27" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="K27" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>45025.590277777803</v>
+        <v>45031.548611111102</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="I28" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="J28" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="K28" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B29" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3">
-        <v>45025.722222222197</v>
+        <v>45031.673611111102</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="I29" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="J29" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="K29" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B30" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="3">
-        <v>45026.638888888898</v>
+        <v>45031.826388888898</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s">
+        <v>291</v>
+      </c>
+      <c r="I30" t="s">
         <v>301</v>
       </c>
-      <c r="I30" t="s">
-        <v>307</v>
-      </c>
       <c r="J30" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="K30" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B31" s="4">
         <v>5</v>
       </c>
       <c r="C31" s="3">
-        <v>45029.819444444402</v>
+        <v>45032.548611111102</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="I31" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J31" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="K31" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B32" s="4">
         <v>5</v>
       </c>
       <c r="C32" s="3">
-        <v>45030.715277777803</v>
+        <v>45032.638888888898</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H32" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="I32" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="J32" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="K32" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B33" s="4">
         <v>5</v>
       </c>
       <c r="C33" s="3">
-        <v>45030.840277777803</v>
+        <v>45032.701388888898</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I33" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="J33" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="K33" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B34" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="3">
-        <v>45031.548611111102</v>
+        <v>45037.840277777803</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G34" t="s">
         <v>101</v>
       </c>
       <c r="H34" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J34" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="K34" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3882,34 +3810,34 @@
         <v>102</v>
       </c>
       <c r="B35" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="3">
-        <v>45031.673611111102</v>
+        <v>45038.572916666701</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
         <v>103</v>
       </c>
       <c r="H35" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="I35" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J35" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="K35" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3917,279 +3845,279 @@
         <v>104</v>
       </c>
       <c r="B36" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" s="3">
-        <v>45031.826388888898</v>
+        <v>45038.690972222197</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H36" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="J36" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="K36" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B37" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="3">
-        <v>45032.548611111102</v>
+        <v>45038.809027777803</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H37" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="I37" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="J37" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="K37" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B38" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" s="3">
-        <v>45032.638888888898</v>
+        <v>45039.548611111102</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H38" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J38" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="K38" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B39" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="3">
-        <v>45032.701388888898</v>
+        <v>45039.638888888898</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H39" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="I39" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="J39" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="K39" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B40" s="4">
         <v>6</v>
       </c>
       <c r="C40" s="3">
-        <v>45037.840277777803</v>
+        <v>45039.694444444402</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H40" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="I40" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="J40" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="K40" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B41" s="4">
         <v>6</v>
       </c>
       <c r="C41" s="3">
-        <v>45038.572916666701</v>
+        <v>45040.809027777803</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H41" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="I41" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="J41" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="K41" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B42" s="4">
         <v>6</v>
       </c>
       <c r="C42" s="3">
-        <v>45038.690972222197</v>
+        <v>45041.638888888898</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H42" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I42" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="J42" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="K42" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B43" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" s="3">
-        <v>45038.809027777803</v>
+        <v>45044.826388888898</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
         <v>121</v>
       </c>
       <c r="H43" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I43" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="J43" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -4197,34 +4125,34 @@
         <v>122</v>
       </c>
       <c r="B44" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" s="3">
-        <v>45039.548611111102</v>
+        <v>45045.572916666701</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
         <v>123</v>
       </c>
       <c r="H44" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="I44" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="J44" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -4232,34 +4160,34 @@
         <v>124</v>
       </c>
       <c r="B45" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" s="3">
-        <v>45039.638888888898</v>
+        <v>45045.590277777803</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G45" t="s">
         <v>125</v>
       </c>
       <c r="H45" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I45" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="J45" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K45" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -4267,34 +4195,34 @@
         <v>126</v>
       </c>
       <c r="B46" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" s="3">
-        <v>45039.694444444402</v>
+        <v>45045.690972222197</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>127</v>
       </c>
       <c r="H46" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I46" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J46" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -4302,10 +4230,10 @@
         <v>128</v>
       </c>
       <c r="B47" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" s="3">
-        <v>45040.809027777803</v>
+        <v>45045.809027777803</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -4314,22 +4242,22 @@
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
         <v>129</v>
       </c>
       <c r="H47" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I47" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J47" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="K47" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -4337,34 +4265,34 @@
         <v>130</v>
       </c>
       <c r="B48" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" s="3">
-        <v>45041.638888888898</v>
+        <v>45045.8125</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G48" t="s">
         <v>131</v>
       </c>
       <c r="H48" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I48" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="J48" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="K48" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4375,31 +4303,31 @@
         <v>7</v>
       </c>
       <c r="C49" s="3">
-        <v>45044.826388888898</v>
+        <v>45046.548611111102</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
         <v>133</v>
       </c>
       <c r="H49" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I49" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="J49" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="K49" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -4410,31 +4338,31 @@
         <v>7</v>
       </c>
       <c r="C50" s="3">
-        <v>45045.572916666701</v>
+        <v>45046.638888888898</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G50" t="s">
         <v>135</v>
       </c>
       <c r="H50" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="I50" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="J50" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="K50" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4445,31 +4373,31 @@
         <v>7</v>
       </c>
       <c r="C51" s="3">
-        <v>45045.590277777803</v>
+        <v>45046.694444444402</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
         <v>137</v>
       </c>
       <c r="H51" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="I51" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="J51" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="K51" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4477,1788 +4405,1770 @@
         <v>138</v>
       </c>
       <c r="B52" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" s="3">
-        <v>45045.690972222197</v>
+        <v>45051.826388888898</v>
       </c>
       <c r="D52" t="s">
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="H52" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="I52" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="J52" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K52" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B53" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" s="3">
-        <v>45045.809027777803</v>
+        <v>45052.572916666701</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="I53" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J53" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="K53" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B54" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" s="3">
-        <v>45045.8125</v>
+        <v>45052.590277777803</v>
       </c>
       <c r="D54" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="H54" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="I54" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J54" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="K54" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B55" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="3">
-        <v>45046.548611111102</v>
+        <v>45052.690972222197</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="I55" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J55" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="K55" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B56" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" s="3">
-        <v>45046.638888888898</v>
+        <v>45052.809027777803</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="H56" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="I56" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J56" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="K56" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B57" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" s="3">
-        <v>45046.694444444402</v>
+        <v>45052.8125</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="I57" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="J57" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="K57" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B58" s="4">
         <v>8</v>
       </c>
       <c r="C58" s="3">
-        <v>45051.826388888898</v>
+        <v>45053.548611111102</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H58" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="I58" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="J58" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="K58" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B59" s="4">
         <v>8</v>
       </c>
       <c r="C59" s="3">
-        <v>45052.572916666701</v>
+        <v>45053.638888888898</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H59" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I59" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="J59" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="K59" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B60" s="4">
         <v>8</v>
       </c>
       <c r="C60" s="3">
-        <v>45052.590277777803</v>
+        <v>45053.694444444402</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H60" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="I60" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="J60" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="K60" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B61" s="4">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3">
+        <v>45058.805555555598</v>
+      </c>
+      <c r="D61" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="3">
-        <v>45052.690972222197</v>
-      </c>
-      <c r="D61" t="s">
-        <v>24</v>
-      </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="I61" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="J61" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="K61" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B62" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" s="3">
-        <v>45052.809027777803</v>
+        <v>45058.861111111102</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I62" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="J62" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="K62" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B63" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" s="3">
-        <v>45052.8125</v>
+        <v>45059.572916666701</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E63" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" t="s">
         <v>33</v>
       </c>
-      <c r="F63" t="s">
-        <v>30</v>
-      </c>
       <c r="H63" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="I63" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J63" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="K63" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B64" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" s="3">
-        <v>45053.548611111102</v>
+        <v>45059.590277777803</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" t="s">
         <v>20</v>
       </c>
-      <c r="F64" t="s">
-        <v>31</v>
-      </c>
       <c r="H64" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="I64" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="J64" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="K64" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B65" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" s="3">
-        <v>45053.638888888898</v>
+        <v>45059.690972222197</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H65" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="I65" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="J65" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="K65" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B66" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" s="3">
-        <v>45053.694444444402</v>
+        <v>45059.809027777803</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I66" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J66" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K66" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B67" s="4">
         <v>9</v>
       </c>
       <c r="C67" s="3">
-        <v>45058.805555555598</v>
+        <v>45059.8125</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H67" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I67" t="s">
         <v>301</v>
       </c>
       <c r="J67" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="K67" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B68" s="4">
         <v>9</v>
       </c>
       <c r="C68" s="3">
-        <v>45058.861111111102</v>
+        <v>45060.548611111102</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="I68" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J68" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="K68" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B69" s="4">
         <v>9</v>
       </c>
       <c r="C69" s="3">
-        <v>45059.572916666701</v>
+        <v>45060.694444444402</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H69" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I69" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="J69" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="K69" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B70" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" s="3">
-        <v>45059.590277777803</v>
+        <v>45065.826388888898</v>
       </c>
       <c r="D70" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H70" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="I70" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="J70" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K70" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B71" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C71" s="3">
-        <v>45059.690972222197</v>
+        <v>45066.572916666701</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H71" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="I71" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J71" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="K71" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B72" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C72" s="3">
-        <v>45059.809027777803</v>
+        <v>45066.590277777803</v>
       </c>
       <c r="D72" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="E72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H72" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I72" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="J72" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K72" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B73" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C73" s="3">
-        <v>45059.8125</v>
+        <v>45066.690972222197</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="I73" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="J73" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="K73" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B74" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74" s="3">
-        <v>45060.548611111102</v>
+        <v>45066.8125</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="I74" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="J74" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="K74" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B75" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C75" s="3">
-        <v>45060.694444444402</v>
+        <v>45066.819444444402</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F75" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H75" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I75" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="J75" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="K75" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B76" s="4">
         <v>10</v>
       </c>
       <c r="C76" s="3">
-        <v>45065.826388888898</v>
+        <v>45067.548611111102</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I76" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J76" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="K76" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B77" s="4">
         <v>10</v>
       </c>
       <c r="C77" s="3">
-        <v>45066.572916666701</v>
+        <v>45067.638888888898</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I77" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="J77" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="K77" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B78" s="4">
         <v>10</v>
       </c>
       <c r="C78" s="3">
-        <v>45066.590277777803</v>
+        <v>45067.694444444402</v>
       </c>
       <c r="D78" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="I78" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="J78" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="K78" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B79" s="4">
+        <v>11</v>
+      </c>
+      <c r="C79" s="3">
+        <v>45072.826388888898</v>
+      </c>
+      <c r="D79" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="3">
-        <v>45066.690972222197</v>
-      </c>
-      <c r="D79" t="s">
-        <v>46</v>
-      </c>
-      <c r="E79" t="s">
-        <v>33</v>
-      </c>
-      <c r="F79" t="s">
-        <v>13</v>
-      </c>
       <c r="H79" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="I79" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J79" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="K79" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B80" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C80" s="3">
-        <v>45066.8125</v>
+        <v>45073.572916666701</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H80" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="I80" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="J80" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="K80" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B81" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C81" s="3">
-        <v>45066.819444444402</v>
+        <v>45073.590277777803</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H81" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="I81" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J81" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="K81" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B82" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C82" s="3">
-        <v>45067.548611111102</v>
+        <v>45073.690972222197</v>
       </c>
       <c r="D82" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H82" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="I82" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="J82" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="K82" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B83" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C83" s="3">
-        <v>45067.638888888898</v>
+        <v>45073.809027777803</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H83" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="I83" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="J83" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="K83" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B84" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C84" s="3">
-        <v>45067.694444444402</v>
+        <v>45073.8125</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E84" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H84" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I84" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J84" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="K84" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B85" s="4">
         <v>11</v>
       </c>
       <c r="C85" s="3">
-        <v>45072.826388888898</v>
+        <v>45074.548611111102</v>
       </c>
       <c r="D85" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="I85" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="J85" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="K85" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B86" s="4">
         <v>11</v>
       </c>
       <c r="C86" s="3">
-        <v>45073.572916666701</v>
+        <v>45074.638888888898</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="I86" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="J86" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K86" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B87" s="4">
         <v>11</v>
       </c>
       <c r="C87" s="3">
-        <v>45073.590277777803</v>
+        <v>45074.694444444402</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H87" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I87" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="J87" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="K87" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B88" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" s="3">
-        <v>45073.690972222197</v>
+        <v>45079.826388888898</v>
       </c>
       <c r="D88" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H88" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I88" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J88" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="K88" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B89" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" s="3">
-        <v>45073.809027777803</v>
+        <v>45080.572916666701</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="E89" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H89" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="I89" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="J89" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="K89" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B90" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" s="3">
-        <v>45073.8125</v>
+        <v>45080.690972222197</v>
       </c>
       <c r="D90" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E90" t="s">
         <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="I90" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="J90" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="K90" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B91" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C91" s="3">
-        <v>45074.548611111102</v>
+        <v>45080.809027777803</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I91" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="J91" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="K91" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B92" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" s="3">
-        <v>45074.638888888898</v>
+        <v>45080.8125</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H92" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="I92" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J92" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="K92" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B93" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" s="3">
-        <v>45074.694444444402</v>
+        <v>45081.548611111102</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H93" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="I93" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="J93" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="K93" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B94" s="4">
         <v>12</v>
       </c>
       <c r="C94" s="3">
-        <v>45079.826388888898</v>
+        <v>45081.694444444402</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H94" t="s">
         <v>304</v>
       </c>
       <c r="I94" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="J94" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="K94" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B95" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C95" s="3">
-        <v>45080.572916666701</v>
+        <v>45085.805555555598</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E95" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H95" t="s">
         <v>303</v>
       </c>
       <c r="I95" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="J95" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="K95" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B96" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C96" s="3">
-        <v>45080.690972222197</v>
+        <v>45086.826388888898</v>
       </c>
       <c r="D96" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I96" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="J96" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="K96" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B97" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C97" s="3">
-        <v>45080.809027777803</v>
+        <v>45087.572916666701</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H97" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="I97" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J97" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="K97" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B98" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C98" s="3">
-        <v>45080.8125</v>
+        <v>45087.690972222197</v>
       </c>
       <c r="D98" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H98" t="s">
+        <v>300</v>
+      </c>
+      <c r="I98" t="s">
         <v>305</v>
       </c>
-      <c r="I98" t="s">
-        <v>312</v>
-      </c>
       <c r="J98" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="K98" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B99" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C99" s="3">
-        <v>45081.548611111102</v>
+        <v>45087.809027777803</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E99" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
       </c>
       <c r="H99" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I99" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="J99" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="K99" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B100" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C100" s="3">
-        <v>45081.694444444402</v>
+        <v>45088.638888888898</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H100" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="I100" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="J100" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="K100" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B101" s="4">
         <v>13</v>
       </c>
       <c r="C101" s="3">
-        <v>45085.805555555598</v>
+        <v>45088.802083333299</v>
       </c>
       <c r="D101" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H101" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="I101" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J101" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="K101" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B102" s="4">
         <v>13</v>
       </c>
       <c r="C102" s="3">
-        <v>45086.826388888898</v>
+        <v>45089.638888888898</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="I102" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J102" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="K102" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B103" s="4">
+        <v>14</v>
+      </c>
+      <c r="C103" s="3">
+        <v>45092.819444444402</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="3">
-        <v>45087.572916666701</v>
-      </c>
-      <c r="D103" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" t="s">
-        <v>30</v>
-      </c>
-      <c r="F103" t="s">
-        <v>21</v>
-      </c>
       <c r="H103" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I103" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="J103" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="K103" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B104" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C104" s="3">
-        <v>45087.690972222197</v>
+        <v>45093.826388888898</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E104" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H104" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="I104" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="J104" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="K104" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B105" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C105" s="3">
-        <v>45087.809027777803</v>
+        <v>45094.690972222197</v>
       </c>
       <c r="D105" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E105" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" t="s">
         <v>33</v>
       </c>
-      <c r="F105" t="s">
-        <v>9</v>
-      </c>
       <c r="H105" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="I105" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J105" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="K105" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B106" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C106" s="3">
-        <v>45088.638888888898</v>
+        <v>45094.809027777803</v>
       </c>
       <c r="D106" t="s">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H106" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="I106" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="J106" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="K106" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B107" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C107" s="3">
-        <v>45088.802083333299</v>
+        <v>45095.548611111102</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -6267,819 +6177,819 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H107" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="I107" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="J107" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="K107" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B108" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C108" s="3">
-        <v>45089.638888888898</v>
+        <v>45095.694444444402</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E108" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H108" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="I108" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="J108" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="K108" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B109" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C109" s="3">
-        <v>45092.819444444402</v>
+        <v>45099.805555555598</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H109" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="I109" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J109" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="K109" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B110" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C110" s="3">
-        <v>45093.826388888898</v>
+        <v>45100.826388888898</v>
       </c>
       <c r="D110" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E110" t="s">
+        <v>32</v>
+      </c>
+      <c r="F110" t="s">
         <v>21</v>
       </c>
-      <c r="F110" t="s">
-        <v>26</v>
-      </c>
       <c r="H110" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="I110" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="J110" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="K110" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B111" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C111" s="3">
-        <v>45094.690972222197</v>
+        <v>45101.690972222197</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E111" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I111" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="J111" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="K111" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B112" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C112" s="3">
-        <v>45094.809027777803</v>
+        <v>45101.809027777803</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E112" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H112" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I112" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J112" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="K112" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B113" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C113" s="3">
-        <v>45095.548611111102</v>
+        <v>45102.548611111102</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H113" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I113" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J113" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="K113" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B114" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C114" s="3">
-        <v>45095.694444444402</v>
+        <v>45102.694444444402</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E114" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H114" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="I114" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="J114" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="K114" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B115" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C115" s="3">
-        <v>45099.805555555598</v>
+        <v>45106.805555555598</v>
       </c>
       <c r="D115" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="E115" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H115" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I115" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="J115" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="K115" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B116" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C116" s="3">
-        <v>45100.826388888898</v>
+        <v>45107.826388888891</v>
       </c>
       <c r="D116" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I116" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="J116" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="K116" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B117" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C117" s="3">
-        <v>45101.690972222197</v>
+        <v>45108.572916666664</v>
       </c>
       <c r="D117" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H117" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="I117" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="J117" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="K117" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B118" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C118" s="3">
-        <v>45101.809027777803</v>
+        <v>45108.572916666664</v>
       </c>
       <c r="D118" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="I118" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="J118" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="K118" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B119" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C119" s="3">
-        <v>45102.548611111102</v>
+        <v>45108.690972222219</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E119" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" t="s">
         <v>14</v>
       </c>
-      <c r="F119" t="s">
-        <v>29</v>
-      </c>
       <c r="H119" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="I119" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="J119" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="K119" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B120" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C120" s="3">
-        <v>45102.694444444402</v>
+        <v>45108.809027777781</v>
       </c>
       <c r="D120" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E120" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H120" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I120" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="J120" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="K120" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B121" s="4">
         <v>16</v>
       </c>
       <c r="C121" s="3">
-        <v>45106.805555555598</v>
+        <v>45109.548611111109</v>
       </c>
       <c r="D121" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E121" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H121" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="I121" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J121" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="K121" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B122" s="4">
         <v>16</v>
       </c>
       <c r="C122" s="3">
-        <v>45107.826388888891</v>
+        <v>45109.638888888898</v>
       </c>
       <c r="D122" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="E122" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H122" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="I122" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="J122" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="K122" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>221</v>
-      </c>
-      <c r="B123" s="4">
+        <v>213</v>
+      </c>
+      <c r="B123" s="5">
         <v>16</v>
       </c>
       <c r="C123" s="3">
-        <v>45108.572916666664</v>
+        <v>45109.694444444402</v>
       </c>
       <c r="D123" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E123" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H123" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="I123" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="J123" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="K123" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B124" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C124" s="3">
-        <v>45108.572916666664</v>
+        <v>45113.805555555555</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H124" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="I124" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J124" t="s">
-        <v>444</v>
+        <v>332</v>
       </c>
       <c r="K124" t="s">
-        <v>643</v>
+        <v>525</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B125" s="4">
+        <v>17</v>
+      </c>
+      <c r="C125" s="3">
+        <v>45114.826388888891</v>
+      </c>
+      <c r="D125" t="s">
         <v>16</v>
       </c>
-      <c r="C125" s="3">
-        <v>45108.690972222219</v>
-      </c>
-      <c r="D125" t="s">
-        <v>24</v>
-      </c>
       <c r="E125" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I125" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="J125" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K125" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B126" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C126" s="3">
-        <v>45108.809027777781</v>
+        <v>45115.572916666664</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H126" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="I126" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J126" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="K126" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B127" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C127" s="3">
-        <v>45109.548611111109</v>
+        <v>45115.690972222197</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E127" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127" t="s">
         <v>30</v>
       </c>
-      <c r="F127" t="s">
-        <v>10</v>
-      </c>
       <c r="H127" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="I127" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="J127" t="s">
-        <v>441</v>
+        <v>337</v>
       </c>
       <c r="K127" t="s">
-        <v>640</v>
+        <v>530</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B128" s="4">
+        <v>17</v>
+      </c>
+      <c r="C128" s="3">
+        <v>45115.809027777781</v>
+      </c>
+      <c r="D128" t="s">
         <v>16</v>
       </c>
-      <c r="C128" s="3">
-        <v>45109.638888888898</v>
-      </c>
-      <c r="D128" t="s">
-        <v>224</v>
-      </c>
       <c r="E128" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128" t="s">
         <v>22</v>
       </c>
-      <c r="F128" t="s">
-        <v>28</v>
-      </c>
       <c r="H128" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I128" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="J128" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="K128" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>225</v>
-      </c>
-      <c r="B129" s="5">
-        <v>16</v>
+        <v>221</v>
+      </c>
+      <c r="B129" s="4">
+        <v>17</v>
       </c>
       <c r="C129" s="3">
-        <v>45109.694444444402</v>
+        <v>45115.819444444445</v>
       </c>
       <c r="D129" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E129" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H129" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="I129" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="J129" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="K129" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B130" s="4">
         <v>17</v>
       </c>
       <c r="C130" s="3">
-        <v>45113.805555555555</v>
+        <v>45116.548611111109</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E130" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H130" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="I130" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="J130" t="s">
-        <v>350</v>
+        <v>431</v>
       </c>
       <c r="K130" t="s">
-        <v>549</v>
+        <v>624</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B131" s="4">
         <v>17</v>
       </c>
       <c r="C131" s="3">
-        <v>45114.826388888891</v>
+        <v>45116.638888888891</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
       </c>
       <c r="E131" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H131" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="I131" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="J131" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="K131" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B132" s="4">
         <v>17</v>
       </c>
       <c r="C132" s="3">
-        <v>45115.572916666664</v>
+        <v>45116.694444444402</v>
       </c>
       <c r="D132" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E132" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H132" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="I132" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="J132" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="K132" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -7087,863 +6997,863 @@
         <v>229</v>
       </c>
       <c r="B133" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C133" s="3">
-        <v>45115.690972222197</v>
+        <v>45120.805555555555</v>
       </c>
       <c r="D133" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H133" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I133" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="J133" t="s">
-        <v>355</v>
+        <v>442</v>
       </c>
       <c r="K133" t="s">
-        <v>554</v>
+        <v>635</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B134" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C134" s="3">
-        <v>45115.809027777781</v>
+        <v>45121.826388888891</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H134" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="I134" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="J134" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="K134" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B135" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C135" s="3">
-        <v>45115.819444444445</v>
+        <v>45122.572916666664</v>
       </c>
       <c r="D135" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E135" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F135" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H135" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I135" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J135" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="K135" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B136" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C136" s="3">
-        <v>45116.548611111109</v>
+        <v>45122.590277777803</v>
       </c>
       <c r="D136" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="E136" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H136" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="I136" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J136" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="K136" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B137" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C137" s="3">
-        <v>45116.638888888891</v>
+        <v>45122.690972222219</v>
       </c>
       <c r="D137" t="s">
         <v>16</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H137" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="I137" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="J137" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="K137" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B138" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C138" s="3">
-        <v>45116.694444444402</v>
+        <v>45122.809027777781</v>
       </c>
       <c r="D138" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F138" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H138" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="I138" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="J138" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="K138" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B139" s="4">
         <v>18</v>
       </c>
       <c r="C139" s="3">
-        <v>45120.805555555555</v>
+        <v>45122.819444444445</v>
       </c>
       <c r="D139" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E139" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H139" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="I139" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="J139" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="K139" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B140" s="4">
         <v>18</v>
       </c>
       <c r="C140" s="3">
-        <v>45121.826388888891</v>
+        <v>45123.548611111109</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E140" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H140" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="I140" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="J140" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="K140" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B141" s="4">
         <v>18</v>
       </c>
       <c r="C141" s="3">
-        <v>45122.572916666664</v>
+        <v>45123.694444444402</v>
       </c>
       <c r="D141" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E141" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H141" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I141" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="J141" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="K141" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B142" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C142" s="3">
-        <v>45122.590277777803</v>
+        <v>45128.826388888891</v>
       </c>
       <c r="D142" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E142" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H142" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I142" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="J142" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="K142" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B143" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C143" s="3">
-        <v>45122.690972222219</v>
+        <v>45129.572916666664</v>
       </c>
       <c r="D143" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H143" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="I143" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="J143" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K143" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B144" s="4">
+        <v>19</v>
+      </c>
+      <c r="C144" s="3">
+        <v>45129.590277777781</v>
+      </c>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s">
         <v>18</v>
       </c>
-      <c r="C144" s="3">
-        <v>45122.809027777781</v>
-      </c>
-      <c r="D144" t="s">
-        <v>120</v>
-      </c>
-      <c r="E144" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" t="s">
-        <v>31</v>
-      </c>
       <c r="H144" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I144" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="J144" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="K144" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B145" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C145" s="3">
-        <v>45122.819444444445</v>
+        <v>45129.690972222219</v>
       </c>
       <c r="D145" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F145" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H145" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="I145" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="J145" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="K145" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B146" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C146" s="3">
-        <v>45123.548611111109</v>
+        <v>45129.819444444445</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E146" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="I146" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="J146" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="K146" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B147" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C147" s="3">
-        <v>45123.694444444402</v>
+        <v>45130.548611111102</v>
       </c>
       <c r="D147" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E147" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F147" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H147" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="I147" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J147" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="K147" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B148" s="4">
         <v>19</v>
       </c>
       <c r="C148" s="3">
-        <v>45128.826388888891</v>
+        <v>45130.548611111109</v>
       </c>
       <c r="D148" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H148" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="I148" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="J148" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="K148" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B149" s="4">
         <v>19</v>
       </c>
       <c r="C149" s="3">
-        <v>45129.572916666664</v>
+        <v>45130.638888888891</v>
       </c>
       <c r="D149" t="s">
         <v>8</v>
       </c>
       <c r="E149" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H149" t="s">
+        <v>292</v>
+      </c>
+      <c r="I149" t="s">
         <v>300</v>
       </c>
-      <c r="I149" t="s">
-        <v>307</v>
-      </c>
       <c r="J149" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="K149" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B150" s="4">
         <v>19</v>
       </c>
       <c r="C150" s="3">
-        <v>45129.590277777781</v>
+        <v>45130.694444444402</v>
       </c>
       <c r="D150" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H150" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="I150" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="J150" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="K150" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B151" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C151" s="3">
-        <v>45129.690972222219</v>
+        <v>45135.826388888898</v>
       </c>
       <c r="D151" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E151" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H151" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="I151" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J151" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="K151" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B152" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C152" s="3">
-        <v>45129.819444444445</v>
+        <v>45136.572916666664</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="E152" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I152" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="J152" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="K152" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B153" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C153" s="3">
-        <v>45130.548611111102</v>
+        <v>45136.572916666701</v>
       </c>
       <c r="D153" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E153" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H153" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="I153" t="s">
         <v>302</v>
       </c>
       <c r="J153" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="K153" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B154" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C154" s="3">
-        <v>45130.548611111109</v>
+        <v>45136.690972222197</v>
       </c>
       <c r="D154" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="E154" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F154" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H154" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="I154" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="J154" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="K154" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B155" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C155" s="3">
-        <v>45130.638888888891</v>
+        <v>45136.809027777781</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E155" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H155" t="s">
         <v>304</v>
       </c>
       <c r="I155" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="J155" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="K155" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B156" s="4">
+        <v>20</v>
+      </c>
+      <c r="C156" s="3">
+        <v>45136.819444444445</v>
+      </c>
+      <c r="D156" t="s">
         <v>19</v>
       </c>
-      <c r="C156" s="3">
-        <v>45130.694444444402</v>
-      </c>
-      <c r="D156" t="s">
-        <v>46</v>
-      </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F156" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H156" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="I156" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="J156" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="K156" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B157" s="4">
         <v>20</v>
       </c>
       <c r="C157" s="3">
-        <v>45135.826388888898</v>
+        <v>45137.548611111109</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E157" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F157" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H157" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="I157" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="J157" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="K157" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B158" s="4">
         <v>20</v>
       </c>
       <c r="C158" s="3">
-        <v>45136.572916666664</v>
+        <v>45137.638888888891</v>
       </c>
       <c r="D158" t="s">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="E158" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F158" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H158" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="I158" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="J158" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="K158" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B159" s="4">
         <v>20</v>
       </c>
       <c r="C159" s="3">
-        <v>45136.572916666701</v>
+        <v>45137.694444444402</v>
       </c>
       <c r="D159" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H159" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I159" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="J159" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="K159" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -7951,42 +7861,42 @@
         <v>256</v>
       </c>
       <c r="B160" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C160" s="3">
-        <v>45136.690972222197</v>
+        <v>45142.826388888898</v>
       </c>
       <c r="D160" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E160" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H160" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I160" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="J160" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="K160" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B161" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C161" s="3">
-        <v>45136.809027777781</v>
+        <v>45143.572916666664</v>
       </c>
       <c r="D161" t="s">
         <v>16</v>
@@ -7995,30 +7905,30 @@
         <v>31</v>
       </c>
       <c r="F161" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H161" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="I161" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J161" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="K161" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B162" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C162" s="3">
-        <v>45136.819444444445</v>
+        <v>45143.590277777781</v>
       </c>
       <c r="D162" t="s">
         <v>19</v>
@@ -8027,243 +7937,243 @@
         <v>29</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H162" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="I162" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="J162" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="K162" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B163" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C163" s="3">
-        <v>45137.548611111109</v>
+        <v>45143.690972222197</v>
       </c>
       <c r="D163" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E163" t="s">
         <v>30</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="I163" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="J163" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="K163" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B164" s="4">
+        <v>21</v>
+      </c>
+      <c r="C164" s="3">
+        <v>45143.809027777781</v>
+      </c>
+      <c r="D164" t="s">
+        <v>108</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
         <v>20</v>
       </c>
-      <c r="C164" s="3">
-        <v>45137.638888888891</v>
-      </c>
-      <c r="D164" t="s">
-        <v>8</v>
-      </c>
-      <c r="E164" t="s">
-        <v>9</v>
-      </c>
-      <c r="F164" t="s">
-        <v>22</v>
-      </c>
       <c r="H164" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="I164" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="J164" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="K164" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B165" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C165" s="3">
-        <v>45137.694444444402</v>
+        <v>45143.8125</v>
       </c>
       <c r="D165" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E165" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H165" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="I165" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J165" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="K165" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B166" s="4">
         <v>21</v>
       </c>
       <c r="C166" s="3">
-        <v>45142.826388888898</v>
+        <v>45144.548611111109</v>
       </c>
       <c r="D166" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="E166" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F166" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H166" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="I166" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J166" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="K166" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B167" s="4">
         <v>21</v>
       </c>
       <c r="C167" s="3">
-        <v>45143.572916666664</v>
+        <v>45144.638888888891</v>
       </c>
       <c r="D167" t="s">
         <v>16</v>
       </c>
       <c r="E167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H167" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="I167" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="J167" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="K167" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B168" s="4">
         <v>21</v>
       </c>
       <c r="C168" s="3">
-        <v>45143.590277777781</v>
+        <v>45144.694444444402</v>
       </c>
       <c r="D168" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E168" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H168" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="I168" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="J168" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="K168" t="s">
-        <v>687</v>
+        <v>664</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B169" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C169" s="3">
-        <v>45143.690972222197</v>
+        <v>45149.826388888898</v>
       </c>
       <c r="D169" t="s">
         <v>8</v>
       </c>
       <c r="E169" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H169" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="I169" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="J169" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="K169" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -8271,740 +8181,740 @@
         <v>263</v>
       </c>
       <c r="B170" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C170" s="3">
-        <v>45143.809027777781</v>
+        <v>45150.572916666664</v>
       </c>
       <c r="D170" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="E170" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H170" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="I170" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J170" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K170" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B171" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C171" s="3">
-        <v>45143.8125</v>
+        <v>45150.590277777781</v>
       </c>
       <c r="D171" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E171" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F171" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H171" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I171" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="J171" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="K171" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B172" s="4">
+        <v>22</v>
+      </c>
+      <c r="C172" s="3">
+        <v>45150.690972222219</v>
+      </c>
+      <c r="D172" t="s">
+        <v>37</v>
+      </c>
+      <c r="E172" t="s">
         <v>21</v>
       </c>
-      <c r="C172" s="3">
-        <v>45144.548611111109</v>
-      </c>
-      <c r="D172" t="s">
-        <v>163</v>
-      </c>
-      <c r="E172" t="s">
-        <v>17</v>
-      </c>
       <c r="F172" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H172" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I172" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J172" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="K172" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B173" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C173" s="3">
-        <v>45144.638888888891</v>
+        <v>45150.809027777781</v>
       </c>
       <c r="D173" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E173" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H173" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="I173" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="J173" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="K173" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B174" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C174" s="3">
-        <v>45144.694444444402</v>
+        <v>45151.548611111109</v>
       </c>
       <c r="D174" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E174" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F174" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H174" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="I174" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="J174" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="K174" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B175" s="4">
         <v>22</v>
       </c>
       <c r="C175" s="3">
-        <v>45149.826388888898</v>
+        <v>45151.638888888891</v>
       </c>
       <c r="D175" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E175" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H175" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="I175" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="J175" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="K175" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B176" s="4">
         <v>22</v>
       </c>
       <c r="C176" s="3">
-        <v>45150.572916666664</v>
+        <v>45151.694444444402</v>
       </c>
       <c r="D176" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E176" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H176" t="s">
+        <v>305</v>
+      </c>
+      <c r="I176" t="s">
         <v>302</v>
       </c>
-      <c r="I176" t="s">
-        <v>316</v>
-      </c>
       <c r="J176" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="K176" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B177" s="4">
         <v>22</v>
       </c>
       <c r="C177" s="3">
-        <v>45150.590277777781</v>
+        <v>45151.694444444445</v>
       </c>
       <c r="D177" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E177" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F177" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H177" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="I177" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J177" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="K177" t="s">
-        <v>695</v>
+        <v>672</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B178" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C178" s="3">
-        <v>45150.690972222219</v>
+        <v>45156.826388888898</v>
       </c>
       <c r="D178" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E178" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" t="s">
         <v>21</v>
       </c>
-      <c r="F178" t="s">
-        <v>29</v>
-      </c>
       <c r="H178" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="I178" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="J178" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="K178" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B179" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C179" s="3">
-        <v>45150.809027777781</v>
+        <v>45157.572916666664</v>
       </c>
       <c r="D179" t="s">
         <v>8</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H179" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="I179" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="J179" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="K179" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B180" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C180" s="3">
-        <v>45151.548611111109</v>
+        <v>45157.590277777781</v>
       </c>
       <c r="D180" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E180" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F180" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H180" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="I180" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="J180" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="K180" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B181" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C181" s="3">
-        <v>45151.638888888891</v>
+        <v>45157.690972222219</v>
       </c>
       <c r="D181" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E181" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F181" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="H181" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="I181" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="J181" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="K181" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B182" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C182" s="3">
-        <v>45151.694444444402</v>
+        <v>45157.809027777781</v>
       </c>
       <c r="D182" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E182" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H182" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="I182" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="J182" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="K182" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B183" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C183" s="3">
-        <v>45151.694444444445</v>
+        <v>45157.819444444445</v>
       </c>
       <c r="D183" t="s">
         <v>19</v>
       </c>
       <c r="E183" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F183" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H183" t="s">
+        <v>300</v>
+      </c>
+      <c r="I183" t="s">
         <v>303</v>
       </c>
-      <c r="I183" t="s">
-        <v>306</v>
-      </c>
       <c r="J183" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="K183" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B184" s="4">
         <v>23</v>
       </c>
       <c r="C184" s="3">
-        <v>45156.826388888898</v>
+        <v>45158.548611111102</v>
       </c>
       <c r="D184" t="s">
         <v>16</v>
       </c>
       <c r="E184" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F184" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H184" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="I184" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="J184" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="K184" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B185" s="4">
         <v>23</v>
       </c>
       <c r="C185" s="3">
-        <v>45157.572916666664</v>
+        <v>45158.638888888898</v>
       </c>
       <c r="D185" t="s">
         <v>8</v>
       </c>
       <c r="E185" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H185" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I185" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J185" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="K185" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B186" s="4">
         <v>23</v>
       </c>
       <c r="C186" s="3">
-        <v>45157.590277777781</v>
+        <v>45158.694444444402</v>
       </c>
       <c r="D186" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E186" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F186" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H186" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I186" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="J186" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="K186" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B187" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C187" s="3">
-        <v>45157.690972222219</v>
+        <v>45163.5</v>
       </c>
       <c r="D187" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E187" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H187" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="I187" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="J187" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="K187" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B188" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C188" s="3">
-        <v>45157.809027777781</v>
+        <v>45163.5</v>
       </c>
       <c r="D188" t="s">
         <v>16</v>
       </c>
       <c r="E188" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H188" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="I188" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="J188" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="K188" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B189" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C189" s="3">
-        <v>45157.819444444445</v>
+        <v>45163.5</v>
       </c>
       <c r="D189" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E189" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F189" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="I189" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="J189" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="K189" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B190" s="4">
+        <v>24</v>
+      </c>
+      <c r="C190" s="3">
+        <v>45163.5</v>
+      </c>
+      <c r="D190" t="s">
+        <v>108</v>
+      </c>
+      <c r="E190" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" t="s">
         <v>23</v>
       </c>
-      <c r="C190" s="3">
-        <v>45158.548611111102</v>
-      </c>
-      <c r="D190" t="s">
-        <v>16</v>
-      </c>
-      <c r="E190" t="s">
-        <v>23</v>
-      </c>
-      <c r="F190" t="s">
-        <v>18</v>
-      </c>
       <c r="H190" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="I190" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="J190" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="K190" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B191" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C191" s="3">
-        <v>45158.638888888898</v>
+        <v>45163.5</v>
       </c>
       <c r="D191" t="s">
         <v>8</v>
       </c>
       <c r="E191" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H191" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="I191" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J191" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="K191" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B192" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C192" s="3">
-        <v>45158.694444444402</v>
+        <v>45163.5</v>
       </c>
       <c r="D192" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="E192" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F192" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H192" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="I192" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="J192" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="K192" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B193" s="4">
         <v>24</v>
@@ -9013,292 +8923,310 @@
         <v>45163.5</v>
       </c>
       <c r="D193" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E193" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H193" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I193" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="J193" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="K193" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B194" s="4">
         <v>24</v>
       </c>
       <c r="C194" s="3">
-        <v>45163.5</v>
+        <v>45163.520833333299</v>
       </c>
       <c r="D194" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F194" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H194" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="I194" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="J194" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="K194" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B195" s="4">
         <v>24</v>
       </c>
       <c r="C195" s="3">
-        <v>45163.5</v>
+        <v>45163.583333333299</v>
       </c>
       <c r="D195" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E195" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H195" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="I195" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="J195" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="K195" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>692</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C196" s="3">
+        <v>45176.805555555598</v>
+      </c>
+      <c r="D196" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" t="s">
+        <v>14</v>
+      </c>
+      <c r="F196" t="s">
+        <v>22</v>
+      </c>
+      <c r="G196" t="s">
+        <v>693</v>
+      </c>
+      <c r="H196" t="s">
+        <v>299</v>
+      </c>
+      <c r="I196" t="s">
         <v>292</v>
       </c>
-      <c r="B196" s="4">
-        <v>24</v>
-      </c>
-      <c r="C196" s="3">
-        <v>45163.5</v>
-      </c>
-      <c r="D196" t="s">
-        <v>120</v>
-      </c>
-      <c r="E196" t="s">
-        <v>13</v>
-      </c>
-      <c r="F196" t="s">
-        <v>23</v>
-      </c>
-      <c r="H196" t="s">
-        <v>301</v>
-      </c>
-      <c r="I196" t="s">
-        <v>313</v>
-      </c>
       <c r="J196" t="s">
-        <v>511</v>
+        <v>711</v>
       </c>
       <c r="K196" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>293</v>
-      </c>
-      <c r="B197" s="4">
-        <v>24</v>
+        <v>694</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>721</v>
       </c>
       <c r="C197" s="3">
-        <v>45163.5</v>
+        <v>45177.826388888898</v>
       </c>
       <c r="D197" t="s">
         <v>8</v>
       </c>
       <c r="E197" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="G197" t="s">
+        <v>695</v>
       </c>
       <c r="H197" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="I197" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="J197" t="s">
-        <v>512</v>
+        <v>712</v>
       </c>
       <c r="K197" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>696</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C198" s="3">
+        <v>45178.638888888898</v>
+      </c>
+      <c r="D198" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" t="s">
+        <v>32</v>
+      </c>
+      <c r="F198" t="s">
+        <v>28</v>
+      </c>
+      <c r="G198" t="s">
+        <v>697</v>
+      </c>
+      <c r="H198" t="s">
+        <v>296</v>
+      </c>
+      <c r="I198" t="s">
         <v>294</v>
       </c>
-      <c r="B198" s="4">
-        <v>24</v>
-      </c>
-      <c r="C198" s="3">
-        <v>45163.5</v>
-      </c>
-      <c r="D198" t="s">
-        <v>163</v>
-      </c>
-      <c r="E198" t="s">
-        <v>17</v>
-      </c>
-      <c r="F198" t="s">
-        <v>25</v>
-      </c>
-      <c r="H198" t="s">
-        <v>302</v>
-      </c>
-      <c r="I198" t="s">
-        <v>305</v>
-      </c>
       <c r="J198" t="s">
-        <v>513</v>
+        <v>713</v>
       </c>
       <c r="K198" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>295</v>
-      </c>
-      <c r="B199" s="4">
-        <v>24</v>
+        <v>698</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>722</v>
       </c>
       <c r="C199" s="3">
-        <v>45163.5</v>
+        <v>45178.809027777803</v>
       </c>
       <c r="D199" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E199" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F199" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G199" t="s">
+        <v>699</v>
       </c>
       <c r="H199" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="I199" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="J199" t="s">
-        <v>514</v>
+        <v>714</v>
       </c>
       <c r="K199" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>296</v>
-      </c>
-      <c r="B200" s="4">
-        <v>24</v>
+        <v>700</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>723</v>
       </c>
       <c r="C200" s="3">
-        <v>45163.520833333299</v>
+        <v>45184.826388888898</v>
       </c>
       <c r="D200" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E200" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F200" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G200" t="s">
+        <v>701</v>
       </c>
       <c r="H200" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="I200" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J200" t="s">
-        <v>515</v>
+        <v>393</v>
       </c>
       <c r="K200" t="s">
-        <v>714</v>
+        <v>586</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>297</v>
-      </c>
-      <c r="B201" s="4">
-        <v>24</v>
+        <v>702</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>723</v>
       </c>
       <c r="C201" s="3">
-        <v>45163.583333333299</v>
+        <v>45185.819444444402</v>
       </c>
       <c r="D201" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E201" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="G201" t="s">
+        <v>703</v>
       </c>
       <c r="H201" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="I201" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="J201" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="K201" t="s">
-        <v>715</v>
+        <v>672</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="C202" s="3">
-        <v>45176.805555555598</v>
+        <v>45191.826388888898</v>
       </c>
       <c r="D202" t="s">
         <v>8</v>
@@ -9307,302 +9235,92 @@
         <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G202" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="H202" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="I202" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="J202" t="s">
-        <v>735</v>
+        <v>374</v>
       </c>
       <c r="K202" t="s">
-        <v>740</v>
+        <v>567</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="C203" s="3">
-        <v>45177.826388888898</v>
+        <v>45192.71875</v>
       </c>
       <c r="D203" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E203" t="s">
+        <v>21</v>
+      </c>
+      <c r="F203" t="s">
         <v>10</v>
       </c>
-      <c r="F203" t="s">
-        <v>26</v>
-      </c>
       <c r="G203" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="H203" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I203" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="J203" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="K203" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>745</v>
+        <v>709</v>
       </c>
       <c r="C204" s="3">
-        <v>45178.638888888898</v>
+        <v>45199.604166666701</v>
       </c>
       <c r="D204" t="s">
         <v>8</v>
       </c>
       <c r="E204" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G204" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="H204" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="I204" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="J204" t="s">
-        <v>737</v>
+        <v>481</v>
       </c>
       <c r="K204" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>722</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C205" s="3">
-        <v>45178.809027777803</v>
-      </c>
-      <c r="D205" t="s">
-        <v>37</v>
-      </c>
-      <c r="E205" t="s">
-        <v>21</v>
-      </c>
-      <c r="F205" t="s">
-        <v>20</v>
-      </c>
-      <c r="G205" t="s">
-        <v>723</v>
-      </c>
-      <c r="H205" t="s">
-        <v>310</v>
-      </c>
-      <c r="I205" t="s">
-        <v>303</v>
-      </c>
-      <c r="J205" t="s">
-        <v>738</v>
-      </c>
-      <c r="K205" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>724</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="C206" s="3">
-        <v>45184.826388888898</v>
-      </c>
-      <c r="D206" t="s">
-        <v>8</v>
-      </c>
-      <c r="E206" t="s">
-        <v>22</v>
-      </c>
-      <c r="F206" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" t="s">
-        <v>725</v>
-      </c>
-      <c r="H206" t="s">
-        <v>304</v>
-      </c>
-      <c r="I206" t="s">
-        <v>309</v>
-      </c>
-      <c r="J206" t="s">
-        <v>411</v>
-      </c>
-      <c r="K206" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>726</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="C207" s="3">
-        <v>45185.819444444402</v>
-      </c>
-      <c r="D207" t="s">
-        <v>19</v>
-      </c>
-      <c r="E207" t="s">
-        <v>20</v>
-      </c>
-      <c r="F207" t="s">
-        <v>28</v>
-      </c>
-      <c r="G207" t="s">
-        <v>727</v>
-      </c>
-      <c r="H207" t="s">
-        <v>303</v>
-      </c>
-      <c r="I207" t="s">
-        <v>306</v>
-      </c>
-      <c r="J207" t="s">
-        <v>497</v>
-      </c>
-      <c r="K207" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>728</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C208" s="3">
-        <v>45191.826388888898</v>
-      </c>
-      <c r="D208" t="s">
-        <v>8</v>
-      </c>
-      <c r="E208" t="s">
-        <v>14</v>
-      </c>
-      <c r="F208" t="s">
-        <v>28</v>
-      </c>
-      <c r="G208" t="s">
-        <v>729</v>
-      </c>
-      <c r="H208" t="s">
-        <v>311</v>
-      </c>
-      <c r="I208" t="s">
-        <v>306</v>
-      </c>
-      <c r="J208" t="s">
-        <v>392</v>
-      </c>
-      <c r="K208" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>730</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C209" s="3">
-        <v>45192.71875</v>
-      </c>
-      <c r="D209" t="s">
-        <v>37</v>
-      </c>
-      <c r="E209" t="s">
-        <v>21</v>
-      </c>
-      <c r="F209" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" t="s">
-        <v>731</v>
-      </c>
-      <c r="H209" t="s">
-        <v>310</v>
-      </c>
-      <c r="I209" t="s">
-        <v>309</v>
-      </c>
-      <c r="J209" t="s">
-        <v>739</v>
-      </c>
-      <c r="K209" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>732</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="C210" s="3">
-        <v>45199.604166666701</v>
-      </c>
-      <c r="D210" t="s">
-        <v>8</v>
-      </c>
-      <c r="E210" t="s">
-        <v>14</v>
-      </c>
-      <c r="F210" t="s">
-        <v>21</v>
-      </c>
-      <c r="G210" t="s">
-        <v>734</v>
-      </c>
-      <c r="H210" t="s">
-        <v>311</v>
-      </c>
-      <c r="I210" t="s">
-        <v>310</v>
-      </c>
-      <c r="J210" t="s">
-        <v>499</v>
-      </c>
-      <c r="K210" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
